--- a/Bets_Today.xlsx
+++ b/Bets_Today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>Sex</t>
   </si>
@@ -55,304 +55,244 @@
     <t>Womens</t>
   </si>
   <si>
-    <t>Andrey Chepelev</t>
-  </si>
-  <si>
-    <t>Kyrian Jacquet</t>
+    <t>Andy Murray</t>
+  </si>
+  <si>
+    <t>Casper Ruud</t>
+  </si>
+  <si>
+    <t>Yoshihito Nishioka</t>
+  </si>
+  <si>
+    <t>Anna Bondar</t>
+  </si>
+  <si>
+    <t>Luca Van Assche</t>
+  </si>
+  <si>
+    <t>John Isner</t>
+  </si>
+  <si>
+    <t>Bjorn Fratangelo</t>
+  </si>
+  <si>
+    <t>Maxime Cressy</t>
+  </si>
+  <si>
+    <t>Diego Schwartzman</t>
+  </si>
+  <si>
+    <t>Barbora Krejcikova</t>
+  </si>
+  <si>
+    <t>Jeffrey John Wolf</t>
+  </si>
+  <si>
+    <t>Lesia Tsurenko</t>
+  </si>
+  <si>
+    <t>Pablo Andujar</t>
+  </si>
+  <si>
+    <t>Roberto Carballes Baena</t>
+  </si>
+  <si>
+    <t>Sara Sorribes Tormo</t>
+  </si>
+  <si>
+    <t>Shuai Zhang</t>
+  </si>
+  <si>
+    <t>Benjamin Bonzi</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina</t>
+  </si>
+  <si>
+    <t>Petra Martic</t>
+  </si>
+  <si>
+    <t>Yibing Wu</t>
+  </si>
+  <si>
+    <t>Arthur Fils</t>
+  </si>
+  <si>
+    <t>Marco Cecchinato</t>
+  </si>
+  <si>
+    <t>Martina Trevisan</t>
+  </si>
+  <si>
+    <t>Pablo Carreno Busta</t>
+  </si>
+  <si>
+    <t>Aidan Mchugh</t>
+  </si>
+  <si>
+    <t>Lukas Klein</t>
+  </si>
+  <si>
+    <t>Sebastian Ofner</t>
+  </si>
+  <si>
+    <t>Franco Agamenone</t>
+  </si>
+  <si>
+    <t>Irina Camelia Begu</t>
+  </si>
+  <si>
+    <t>Norbert Gombos</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich</t>
+  </si>
+  <si>
+    <t>Quentin Halys</t>
+  </si>
+  <si>
+    <t>Cristina Bucsa</t>
+  </si>
+  <si>
+    <t>Jack Sock</t>
+  </si>
+  <si>
+    <t>Steve Johnson</t>
+  </si>
+  <si>
+    <t>Hugo Gaston</t>
+  </si>
+  <si>
+    <t>Joris De Loore</t>
+  </si>
+  <si>
+    <t>David Ionel Nicholas</t>
+  </si>
+  <si>
+    <t>Jason Kubler</t>
+  </si>
+  <si>
+    <t>Max Houkes</t>
+  </si>
+  <si>
+    <t>Max Purcell</t>
+  </si>
+  <si>
+    <t>Francisco Cerundolo</t>
+  </si>
+  <si>
+    <t>Patrick Kypson</t>
+  </si>
+  <si>
+    <t>Despina Papamichail</t>
+  </si>
+  <si>
+    <t>Maarten Jong Alexander</t>
+  </si>
+  <si>
+    <t>Peter Gojowczyk</t>
+  </si>
+  <si>
+    <t>Hady Habib</t>
+  </si>
+  <si>
+    <t>Mitchell Krueger</t>
+  </si>
+  <si>
+    <t>Elias Ymer</t>
+  </si>
+  <si>
+    <t>Xiyu Wang</t>
+  </si>
+  <si>
+    <t>Shintaro Mochizuki</t>
+  </si>
+  <si>
+    <t>Kamilla Rakhimova</t>
+  </si>
+  <si>
+    <t>Louis Wessels</t>
+  </si>
+  <si>
+    <t>Adrian Andreev</t>
+  </si>
+  <si>
+    <t>Clara Burel</t>
+  </si>
+  <si>
+    <t>Ekaterine Gorgodze</t>
+  </si>
+  <si>
+    <t>Christopher Eubanks</t>
+  </si>
+  <si>
+    <t>Katerina Siniakova</t>
+  </si>
+  <si>
+    <t>Erika Andreeva</t>
+  </si>
+  <si>
+    <t>Ulises Blanch</t>
+  </si>
+  <si>
+    <t>Ivan Gakhov</t>
+  </si>
+  <si>
+    <t>Raul Brancaccio</t>
+  </si>
+  <si>
+    <t>Kateryna Baindl</t>
+  </si>
+  <si>
+    <t>Albert Ramos Vinolas</t>
+  </si>
+  <si>
+    <t>Juan Pablo Ficovich</t>
+  </si>
+  <si>
+    <t>Oleksii Krutykh</t>
+  </si>
+  <si>
+    <t>Cedrik Marcel Stebe</t>
+  </si>
+  <si>
+    <t>Filip Horansky</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova</t>
+  </si>
+  <si>
+    <t>Matteo Gigante</t>
   </si>
   <si>
     <t>Bernarda Pera</t>
   </si>
   <si>
-    <t>Alexis Gautier</t>
-  </si>
-  <si>
-    <t>Marc Andrea Huesler</t>
-  </si>
-  <si>
-    <t>Fabio Fognini</t>
-  </si>
-  <si>
-    <t>Tomas Martin Etcheverry</t>
-  </si>
-  <si>
-    <t>Adrian Andreev</t>
-  </si>
-  <si>
-    <t>Liam Broady</t>
-  </si>
-  <si>
-    <t>Raul Brancaccio</t>
-  </si>
-  <si>
-    <t>Christopher Eubanks</t>
-  </si>
-  <si>
-    <t>Ivan Gakhov</t>
-  </si>
-  <si>
-    <t>Cristina Bucsa</t>
-  </si>
-  <si>
-    <t>Anna Blinkova</t>
-  </si>
-  <si>
-    <t>Mitchell Krueger</t>
-  </si>
-  <si>
-    <t>Novak Djokovic</t>
-  </si>
-  <si>
-    <t>Jose Gutierrez Oscar</t>
-  </si>
-  <si>
-    <t>Gijs Brouwer</t>
-  </si>
-  <si>
-    <t>Jaume Munar</t>
-  </si>
-  <si>
-    <t>Olga Danilovic</t>
-  </si>
-  <si>
-    <t>Luca Van Assche</t>
-  </si>
-  <si>
-    <t>Giovanni Fonio</t>
-  </si>
-  <si>
-    <t>Christopher O'Connell</t>
-  </si>
-  <si>
-    <t>Dane Sweeny</t>
-  </si>
-  <si>
-    <t>Martin Cuevas</t>
-  </si>
-  <si>
-    <t>Facundo Bagnis</t>
-  </si>
-  <si>
-    <t>Benjamin Hassan</t>
-  </si>
-  <si>
-    <t>Pedro Cachin</t>
-  </si>
-  <si>
-    <t>Jason Jung</t>
-  </si>
-  <si>
-    <t>Johan Nikles</t>
-  </si>
-  <si>
-    <t>Arthur Fils</t>
-  </si>
-  <si>
-    <t>Thiago Monteiro</t>
-  </si>
-  <si>
-    <t>Yuki Naito</t>
-  </si>
-  <si>
-    <t>Elahi Galan Daniel</t>
-  </si>
-  <si>
-    <t>Mats Rosenkranz</t>
-  </si>
-  <si>
-    <t>Murkel Dellien</t>
-  </si>
-  <si>
-    <t>Gerald Melzer</t>
-  </si>
-  <si>
-    <t>Patrick Kypson</t>
-  </si>
-  <si>
-    <t>Ilya Snitari</t>
-  </si>
-  <si>
-    <t>Pavel Kotov</t>
-  </si>
-  <si>
-    <t>Juan Pablo Varillas</t>
-  </si>
-  <si>
-    <t>Noah Rubin</t>
-  </si>
-  <si>
-    <t>Remy Bertola</t>
-  </si>
-  <si>
-    <t>Sara Errani</t>
-  </si>
-  <si>
-    <t>William Blumberg</t>
-  </si>
-  <si>
-    <t>Christian Langmo</t>
-  </si>
-  <si>
-    <t>Sidane Pontjodikromo</t>
-  </si>
-  <si>
-    <t>Kaito Uesugi</t>
-  </si>
-  <si>
-    <t>Gage Brymer</t>
-  </si>
-  <si>
-    <t>Rebeka Stolmar</t>
-  </si>
-  <si>
-    <t>Petre Prajescu Marian</t>
-  </si>
-  <si>
-    <t>Gabriele Crivellaro</t>
-  </si>
-  <si>
-    <t>Sophia Shapatava</t>
-  </si>
-  <si>
-    <t>Vlad Stoica</t>
-  </si>
-  <si>
-    <t>Leo Borg</t>
-  </si>
-  <si>
-    <t>Karl Friberg</t>
-  </si>
-  <si>
-    <t>Viktor Durasovic</t>
-  </si>
-  <si>
-    <t>Elgin Khoeblal</t>
-  </si>
-  <si>
-    <t>Evan King</t>
-  </si>
-  <si>
-    <t>Davide Galoppini</t>
-  </si>
-  <si>
-    <t>Pedja Krstin</t>
-  </si>
-  <si>
-    <t>Sem Verbeek</t>
-  </si>
-  <si>
-    <t>Conny Perrin</t>
-  </si>
-  <si>
-    <t>Giulia Gatto Monticone</t>
-  </si>
-  <si>
-    <t>Evan Zhu</t>
-  </si>
-  <si>
-    <t>Nick Kyrgios</t>
-  </si>
-  <si>
-    <t>Vladyslav Orlov</t>
-  </si>
-  <si>
-    <t>Brandon Holt</t>
-  </si>
-  <si>
-    <t>Nicolas Jarry</t>
-  </si>
-  <si>
-    <t>Joanne Zuger</t>
-  </si>
-  <si>
-    <t>Naoki Nakagawa</t>
-  </si>
-  <si>
-    <t>Pedro Boscardin Dias</t>
-  </si>
-  <si>
-    <t>Altug Celikbilek</t>
-  </si>
-  <si>
-    <t>Kiranpal Pannu</t>
-  </si>
-  <si>
-    <t>Inigo Cervantes</t>
-  </si>
-  <si>
-    <t>Pedro Sousa</t>
-  </si>
-  <si>
-    <t>Tristan Lamasine</t>
-  </si>
-  <si>
-    <t>Nicolas Kicker</t>
-  </si>
-  <si>
-    <t>Mirza Basic</t>
-  </si>
-  <si>
-    <t>Thomaz Bellucci</t>
-  </si>
-  <si>
-    <t>Sumit Nagal</t>
-  </si>
-  <si>
-    <t>Norbert Gombos</t>
-  </si>
-  <si>
-    <t>Asia Muhammad</t>
-  </si>
-  <si>
-    <t>Yannick Hanfmann</t>
-  </si>
-  <si>
-    <t>Gauthier Onclin</t>
-  </si>
-  <si>
-    <t>Francesco Forti</t>
-  </si>
-  <si>
-    <t>Juan Pablo Ficovich</t>
-  </si>
-  <si>
-    <t>Nick Chappell</t>
-  </si>
-  <si>
-    <t>Alexander Erler</t>
-  </si>
-  <si>
-    <t>Henri Laaksonen</t>
-  </si>
-  <si>
-    <t>Federico Delbonis</t>
-  </si>
-  <si>
-    <t>Ernesto Escobedo</t>
-  </si>
-  <si>
-    <t>Lorenzo Giustino</t>
-  </si>
-  <si>
-    <t>Dalma Galfi</t>
-  </si>
-  <si>
-    <t>Ramkumar Ramanathan</t>
-  </si>
-  <si>
-    <t>Alexey Vatutin</t>
-  </si>
-  <si>
-    <t>Georgii Kravchenko</t>
-  </si>
-  <si>
-    <t>Kumar Mukund Sasi</t>
-  </si>
-  <si>
-    <t>Tung lin Wu</t>
-  </si>
-  <si>
-    <t>Kateryna Baindl</t>
+    <t>James Duckworth</t>
+  </si>
+  <si>
+    <t>Simona Waltert</t>
+  </si>
+  <si>
+    <t>Alexander Bublik</t>
+  </si>
+  <si>
+    <t>Jiri Vesely</t>
+  </si>
+  <si>
+    <t>Aslan Karatsev</t>
+  </si>
+  <si>
+    <t>Matheus Pucinelli De Almeida</t>
+  </si>
+  <si>
+    <t>Geoffrey Blancaneaux</t>
+  </si>
+  <si>
+    <t>Felix Auger Aliassime</t>
+  </si>
+  <si>
+    <t>Carlos Taberner</t>
   </si>
   <si>
     <t>Lower</t>
@@ -713,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,28 +702,28 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="E2">
-        <v>1.435712498565267</v>
+        <v>1.243334764533346</v>
       </c>
       <c r="F2">
-        <v>11.13</v>
+        <v>5.15</v>
       </c>
       <c r="G2">
-        <v>3.295091380882675</v>
+        <v>5.109564870098796</v>
       </c>
       <c r="H2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -797,28 +737,28 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="E3">
-        <v>1.842257605972653</v>
+        <v>1.238063810770452</v>
       </c>
       <c r="F3">
-        <v>14.33</v>
+        <v>4.89</v>
       </c>
       <c r="G3">
-        <v>2.187285211684356</v>
+        <v>5.200554451193882</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -826,34 +766,34 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="E4">
-        <v>1.438742158432099</v>
+        <v>1.44274350822676</v>
       </c>
       <c r="F4">
-        <v>13.46</v>
+        <v>4.39</v>
       </c>
       <c r="G4">
-        <v>3.279243015017357</v>
+        <v>3.258644071383717</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -861,34 +801,34 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="E5">
-        <v>1.773500105540041</v>
+        <v>1.295717191371281</v>
       </c>
       <c r="F5">
-        <v>11.6</v>
+        <v>4.83</v>
       </c>
       <c r="G5">
-        <v>2.292824645837407</v>
+        <v>4.381609284745547</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -902,28 +842,28 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="E6">
-        <v>1.07441340595888</v>
+        <v>1.89685126844701</v>
       </c>
       <c r="F6">
-        <v>11.19</v>
+        <v>4.47</v>
       </c>
       <c r="G6">
-        <v>14.43843877476302</v>
+        <v>2.115012081915882</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J6">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -937,28 +877,28 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="E7">
-        <v>1.431560393288373</v>
+        <v>1.24060931348543</v>
       </c>
       <c r="F7">
-        <v>9.140000000000001</v>
+        <v>4.58</v>
       </c>
       <c r="G7">
-        <v>3.31717278868033</v>
+        <v>5.156115095937698</v>
       </c>
       <c r="H7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -972,28 +912,28 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="E8">
-        <v>1.218108057525599</v>
+        <v>1.377573914477004</v>
       </c>
       <c r="F8">
-        <v>8.48</v>
+        <v>4.02</v>
       </c>
       <c r="G8">
-        <v>5.584883343352098</v>
+        <v>3.648488048717955</v>
       </c>
       <c r="H8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I8">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J8">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -1007,28 +947,28 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="E9">
-        <v>1.489696416703031</v>
+        <v>1.707877161097336</v>
       </c>
       <c r="F9">
-        <v>6.85</v>
+        <v>4.09</v>
       </c>
       <c r="G9">
-        <v>3.042081513956502</v>
+        <v>2.41267447935433</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1042,63 +982,63 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="E10">
-        <v>1.098534457189841</v>
+        <v>1.41703034340368</v>
       </c>
       <c r="F10">
-        <v>6.46</v>
+        <v>4.07</v>
       </c>
       <c r="G10">
-        <v>11.14873404207584</v>
+        <v>3.397907048773217</v>
       </c>
       <c r="H10">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J10">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="E11">
-        <v>1.508412352289463</v>
+        <v>1.357663817988219</v>
       </c>
       <c r="F11">
-        <v>5.44</v>
+        <v>3.89</v>
       </c>
       <c r="G11">
-        <v>2.966907364655556</v>
+        <v>3.795921616071714</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -1112,28 +1052,28 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="E12">
-        <v>1.155485675532348</v>
+        <v>1.365759305765522</v>
       </c>
       <c r="F12">
-        <v>5.52</v>
+        <v>3.5</v>
       </c>
       <c r="G12">
-        <v>7.431460625399889</v>
+        <v>3.734038435213658</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -1141,69 +1081,69 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="E13">
-        <v>1.686499166466402</v>
+        <v>1.211919810654001</v>
       </c>
       <c r="F13">
-        <v>4.77</v>
+        <v>3.58</v>
       </c>
       <c r="G13">
-        <v>2.456666007545606</v>
+        <v>5.71876601302125</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="E14">
-        <v>1.248452242119234</v>
+        <v>1.490828929313543</v>
       </c>
       <c r="F14">
-        <v>4.93</v>
+        <v>3.33</v>
       </c>
       <c r="G14">
-        <v>5.024918396671548</v>
+        <v>3.037369723497281</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14">
         <v>30</v>
       </c>
       <c r="J14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1211,34 +1151,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="E15">
-        <v>1.498767276172729</v>
+        <v>1.728470188498434</v>
       </c>
       <c r="F15">
-        <v>4.82</v>
+        <v>3.23</v>
       </c>
       <c r="G15">
-        <v>3.004943082219548</v>
+        <v>2.372739771357369</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -1246,34 +1186,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="E16">
-        <v>1.741396175892803</v>
+        <v>1.340745926290542</v>
       </c>
       <c r="F16">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="G16">
-        <v>2.348806525466336</v>
+        <v>3.934737946499573</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I16">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J16">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
@@ -1281,37 +1221,37 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D17">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="E17">
-        <v>1.475373126992572</v>
+        <v>1.217088874600385</v>
       </c>
       <c r="F17">
-        <v>3.86</v>
+        <v>3.23</v>
       </c>
       <c r="G17">
-        <v>3.103610707501406</v>
+        <v>5.606408328574137</v>
       </c>
       <c r="H17">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I17">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1322,28 +1262,28 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D18">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="E18">
-        <v>1.368198334979645</v>
+        <v>1.539279763893213</v>
       </c>
       <c r="F18">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="G18">
-        <v>3.715927545015331</v>
+        <v>2.854325096088748</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J18">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
@@ -1351,31 +1291,31 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="E19">
-        <v>1.762636739097499</v>
+        <v>1.43816781090614</v>
       </c>
       <c r="F19">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="G19">
-        <v>2.311240265166606</v>
+        <v>3.282230631985445</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -1386,31 +1326,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="E20">
-        <v>1.608674065725394</v>
+        <v>1.515419836794371</v>
       </c>
       <c r="F20">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="G20">
-        <v>2.642915406307378</v>
+        <v>2.940165916429316</v>
       </c>
       <c r="H20">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="I20">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -1421,37 +1361,37 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="E21">
-        <v>1.311110380410923</v>
+        <v>1.304027314351926</v>
       </c>
       <c r="F21">
-        <v>3.33</v>
+        <v>2.95</v>
       </c>
       <c r="G21">
-        <v>4.214293263629368</v>
+        <v>4.28917815207371</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J21">
         <v>1.4</v>
       </c>
       <c r="K21" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1462,22 +1402,22 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="E22">
-        <v>1.724544873487329</v>
+        <v>1.943593460728837</v>
       </c>
       <c r="F22">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="G22">
-        <v>2.380176765569908</v>
+        <v>2.059778433847554</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22">
         <v>20</v>
@@ -1497,28 +1437,28 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="E23">
-        <v>1.829189347808645</v>
+        <v>1.802228659814131</v>
       </c>
       <c r="F23">
-        <v>3.12</v>
+        <v>2.7</v>
       </c>
       <c r="G23">
-        <v>2.205997161737265</v>
+        <v>2.246527393114689</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J23">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
@@ -1526,37 +1466,37 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="E24">
-        <v>1.338904373988616</v>
+        <v>1.351753490171538</v>
       </c>
       <c r="F24">
-        <v>3.21</v>
+        <v>2.85</v>
       </c>
       <c r="G24">
-        <v>3.950684844314195</v>
+        <v>3.842900007935481</v>
       </c>
       <c r="H24">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J24">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1567,28 +1507,28 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E25">
-        <v>1.523907646712521</v>
+        <v>1.659754753180931</v>
       </c>
       <c r="F25">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="G25">
-        <v>2.908733354580567</v>
+        <v>2.515714733662193</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25">
         <v>40</v>
       </c>
       <c r="J25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
@@ -1602,28 +1542,28 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D26">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="E26">
-        <v>1.517013889809722</v>
+        <v>1.775485886068333</v>
       </c>
       <c r="F26">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="G26">
-        <v>2.9341840126733</v>
+        <v>2.289514120069857</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J26">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
@@ -1637,31 +1577,31 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="E27">
-        <v>1.331245714239471</v>
+        <v>1.926812502065258</v>
       </c>
       <c r="F27">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="G27">
-        <v>4.018906983584577</v>
+        <v>2.078966886799277</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K27" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1672,31 +1612,31 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="E28">
-        <v>1.230775091717464</v>
+        <v>1.469943955922008</v>
       </c>
       <c r="F28">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="G28">
-        <v>5.333223280544908</v>
+        <v>3.127913312637562</v>
       </c>
       <c r="H28">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I28">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J28">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1707,63 +1647,63 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="E29">
-        <v>1.255536667893293</v>
+        <v>1.667544862568016</v>
       </c>
       <c r="F29">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="G29">
-        <v>4.913332705807924</v>
+        <v>2.498026658692337</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I29">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J29">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D30">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="E30">
-        <v>1.738431932938682</v>
+        <v>1.584359344189217</v>
       </c>
       <c r="F30">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="G30">
-        <v>2.354220958484793</v>
+        <v>2.71127579278718</v>
       </c>
       <c r="H30">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I30">
         <v>40</v>
       </c>
       <c r="J30">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K30" t="s">
         <v>10</v>
@@ -1777,66 +1717,66 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D31">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="E31">
-        <v>1.215212537523074</v>
+        <v>1.881407886203795</v>
       </c>
       <c r="F31">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="G31">
-        <v>5.646569440187869</v>
+        <v>2.134548505467746</v>
       </c>
       <c r="H31">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K31" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>1.66</v>
+      </c>
+      <c r="E32">
+        <v>1.381761934646409</v>
+      </c>
+      <c r="F32">
+        <v>2.21</v>
+      </c>
+      <c r="G32">
+        <v>3.619433498329812</v>
+      </c>
+      <c r="H32">
+        <v>53</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>1.7</v>
+      </c>
+      <c r="K32" t="s">
         <v>93</v>
-      </c>
-      <c r="D32">
-        <v>1.54</v>
-      </c>
-      <c r="E32">
-        <v>1.533294529167357</v>
-      </c>
-      <c r="F32">
-        <v>2.35</v>
-      </c>
-      <c r="G32">
-        <v>2.875136430822418</v>
-      </c>
-      <c r="H32">
-        <v>27</v>
-      </c>
-      <c r="I32">
-        <v>20</v>
-      </c>
-      <c r="J32">
-        <v>1.6</v>
-      </c>
-      <c r="K32" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1847,31 +1787,31 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D33">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="E33">
-        <v>1.788767161100496</v>
+        <v>1.460032677925018</v>
       </c>
       <c r="F33">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="G33">
-        <v>2.26780125912543</v>
+        <v>3.173758621910316</v>
       </c>
       <c r="H33">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I33">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J33">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K33" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1882,31 +1822,31 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="E34">
-        <v>1.520855843846788</v>
+        <v>1.418060699269484</v>
       </c>
       <c r="F34">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="G34">
-        <v>2.919917020829575</v>
+        <v>3.391997147178369</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I34">
         <v>20</v>
       </c>
       <c r="J34">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K34" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1917,31 +1857,31 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D35">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="E35">
-        <v>1.667937037068992</v>
+        <v>1.596850733612473</v>
       </c>
       <c r="F35">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="G35">
-        <v>2.497147102948731</v>
+        <v>2.675460787234764</v>
       </c>
       <c r="H35">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I35">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K35" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1952,31 +1892,31 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D36">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="E36">
-        <v>1.538427403266893</v>
+        <v>1.818425292957983</v>
       </c>
       <c r="F36">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="G36">
-        <v>2.857260596196495</v>
+        <v>2.221858621189189</v>
       </c>
       <c r="H36">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J36">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1987,31 +1927,31 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="E37">
-        <v>1.554437530054523</v>
+        <v>1.882342984028513</v>
       </c>
       <c r="F37">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="G37">
-        <v>2.803629707212751</v>
+        <v>2.133346122881037</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2022,31 +1962,31 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D38">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="E38">
-        <v>1.669976372407486</v>
+        <v>1.650663481496721</v>
       </c>
       <c r="F38">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="G38">
-        <v>2.492589949712122</v>
+        <v>2.536892769361667</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J38">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2057,31 +1997,31 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D39">
-        <v>1.84</v>
+        <v>2.55</v>
       </c>
       <c r="E39">
-        <v>1.540247016087655</v>
+        <v>1.842845156065298</v>
       </c>
       <c r="F39">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="G39">
-        <v>2.851005133247696</v>
+        <v>2.186457551311509</v>
       </c>
       <c r="H39">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I39">
         <v>40</v>
       </c>
       <c r="J39">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2092,31 +2032,31 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D40">
-        <v>1.85</v>
+        <v>3.63</v>
       </c>
       <c r="E40">
-        <v>1.112315736832832</v>
+        <v>1.961754116068471</v>
       </c>
       <c r="F40">
-        <v>1.84</v>
+        <v>1.28</v>
       </c>
       <c r="G40">
-        <v>9.903471839287986</v>
+        <v>2.039766800362522</v>
       </c>
       <c r="H40">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I40">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J40">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="K40" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2127,381 +2067,31 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D41">
-        <v>1.88</v>
+        <v>4.85</v>
       </c>
       <c r="E41">
-        <v>1.327720809611444</v>
+        <v>1.646054584418862</v>
       </c>
       <c r="F41">
-        <v>1.86</v>
+        <v>1.16</v>
       </c>
       <c r="G41">
-        <v>4.051377790704322</v>
+        <v>2.547856828381644</v>
       </c>
       <c r="H41">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J41">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="K41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42">
-        <v>2.1</v>
-      </c>
-      <c r="E42">
-        <v>1.430624923853853</v>
-      </c>
-      <c r="F42">
-        <v>1.69</v>
-      </c>
-      <c r="G42">
-        <v>3.322206506419918</v>
-      </c>
-      <c r="H42">
-        <v>41</v>
-      </c>
-      <c r="I42">
-        <v>40</v>
-      </c>
-      <c r="J42">
-        <v>2.1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43">
-        <v>2.47</v>
-      </c>
-      <c r="E43">
-        <v>1.855805947924027</v>
-      </c>
-      <c r="F43">
-        <v>1.5</v>
-      </c>
-      <c r="G43">
-        <v>2.168489191300613</v>
-      </c>
-      <c r="H43">
-        <v>47</v>
-      </c>
-      <c r="I43">
-        <v>40</v>
-      </c>
-      <c r="J43">
-        <v>2.5</v>
-      </c>
-      <c r="K43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44">
-        <v>2.59</v>
-      </c>
-      <c r="E44">
-        <v>1.750442440691269</v>
-      </c>
-      <c r="F44">
-        <v>1.44</v>
-      </c>
-      <c r="G44">
-        <v>2.332547235839769</v>
-      </c>
-      <c r="H44">
-        <v>35</v>
-      </c>
-      <c r="I44">
-        <v>30</v>
-      </c>
-      <c r="J44">
-        <v>2.6</v>
-      </c>
-      <c r="K44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45">
-        <v>2.76</v>
-      </c>
-      <c r="E45">
-        <v>1.939342400365768</v>
-      </c>
-      <c r="F45">
-        <v>1.44</v>
-      </c>
-      <c r="G45">
-        <v>2.064574535984549</v>
-      </c>
-      <c r="H45">
-        <v>33</v>
-      </c>
-      <c r="I45">
-        <v>30</v>
-      </c>
-      <c r="J45">
-        <v>2.8</v>
-      </c>
-      <c r="K45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46">
-        <v>2.78</v>
-      </c>
-      <c r="E46">
-        <v>1.737016544407258</v>
-      </c>
-      <c r="F46">
-        <v>1.41</v>
-      </c>
-      <c r="G46">
-        <v>2.356821644762731</v>
-      </c>
-      <c r="H46">
-        <v>55</v>
-      </c>
-      <c r="I46">
-        <v>50</v>
-      </c>
-      <c r="J46">
-        <v>2.8</v>
-      </c>
-      <c r="K46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47">
-        <v>3.21</v>
-      </c>
-      <c r="E47">
-        <v>1.92423460493527</v>
-      </c>
-      <c r="F47">
-        <v>1.31</v>
-      </c>
-      <c r="G47">
-        <v>2.081976366887968</v>
-      </c>
-      <c r="H47">
-        <v>39</v>
-      </c>
-      <c r="I47">
-        <v>30</v>
-      </c>
-      <c r="J47">
-        <v>3.3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48">
-        <v>3.32</v>
-      </c>
-      <c r="E48">
-        <v>1.617602970197294</v>
-      </c>
-      <c r="F48">
-        <v>1.29</v>
-      </c>
-      <c r="G48">
-        <v>2.61916319748357</v>
-      </c>
-      <c r="H48">
-        <v>21</v>
-      </c>
-      <c r="I48">
-        <v>20</v>
-      </c>
-      <c r="J48">
-        <v>3.4</v>
-      </c>
-      <c r="K48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49">
-        <v>3.6</v>
-      </c>
-      <c r="E49">
-        <v>1.744095896512159</v>
-      </c>
-      <c r="F49">
-        <v>1.25</v>
-      </c>
-      <c r="G49">
-        <v>2.343912800335755</v>
-      </c>
-      <c r="H49">
-        <v>34</v>
-      </c>
-      <c r="I49">
-        <v>30</v>
-      </c>
-      <c r="J49">
-        <v>3.6</v>
-      </c>
-      <c r="K49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50">
-        <v>5.71</v>
-      </c>
-      <c r="E50">
-        <v>1.954232775650261</v>
-      </c>
-      <c r="F50">
-        <v>1.12</v>
-      </c>
-      <c r="G50">
-        <v>2.047962326926521</v>
-      </c>
-      <c r="H50">
-        <v>42</v>
-      </c>
-      <c r="I50">
-        <v>40</v>
-      </c>
-      <c r="J50">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="K50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51">
-        <v>7.53</v>
-      </c>
-      <c r="E51">
-        <v>1.861838246045547</v>
-      </c>
-      <c r="F51">
-        <v>1.08</v>
-      </c>
-      <c r="G51">
-        <v>2.160310539232151</v>
-      </c>
-      <c r="H51">
-        <v>26</v>
-      </c>
-      <c r="I51">
-        <v>20</v>
-      </c>
-      <c r="J51">
-        <v>7.600000000000001</v>
-      </c>
-      <c r="K51" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Bets_Today.xlsx
+++ b/Bets_Today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>Sex</t>
   </si>
@@ -49,250 +49,196 @@
     <t>Higher</t>
   </si>
   <si>
+    <t>Womens</t>
+  </si>
+  <si>
     <t>Mens</t>
   </si>
   <si>
-    <t>Womens</t>
-  </si>
-  <si>
-    <t>Andy Murray</t>
-  </si>
-  <si>
-    <t>Casper Ruud</t>
+    <t>Belinda Bencic</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva</t>
+  </si>
+  <si>
+    <t>Jiri Lehecka</t>
+  </si>
+  <si>
+    <t>Bernabe Zapata Miralles</t>
+  </si>
+  <si>
+    <t>Pedro Cachin</t>
+  </si>
+  <si>
+    <t>Jule Niemeier</t>
+  </si>
+  <si>
+    <t>Tallon Griekspoor</t>
+  </si>
+  <si>
+    <t>Andrey Rublev</t>
+  </si>
+  <si>
+    <t>Caroline Garcia</t>
+  </si>
+  <si>
+    <t>Alexandre Muller</t>
+  </si>
+  <si>
+    <t>Taro Daniel</t>
   </si>
   <si>
     <t>Yoshihito Nishioka</t>
   </si>
   <si>
-    <t>Anna Bondar</t>
-  </si>
-  <si>
-    <t>Luca Van Assche</t>
+    <t>Maxime Cressy</t>
+  </si>
+  <si>
+    <t>Roberto Bautista Agut</t>
+  </si>
+  <si>
+    <t>Ben Shelton</t>
   </si>
   <si>
     <t>John Isner</t>
   </si>
   <si>
-    <t>Bjorn Fratangelo</t>
-  </si>
-  <si>
-    <t>Maxime Cressy</t>
-  </si>
-  <si>
-    <t>Diego Schwartzman</t>
-  </si>
-  <si>
-    <t>Barbora Krejcikova</t>
-  </si>
-  <si>
-    <t>Jeffrey John Wolf</t>
-  </si>
-  <si>
-    <t>Lesia Tsurenko</t>
-  </si>
-  <si>
-    <t>Pablo Andujar</t>
-  </si>
-  <si>
-    <t>Roberto Carballes Baena</t>
-  </si>
-  <si>
-    <t>Sara Sorribes Tormo</t>
+    <t>Juan Pablo Ficovich</t>
   </si>
   <si>
     <t>Shuai Zhang</t>
   </si>
   <si>
+    <t>Francesco Maestrelli</t>
+  </si>
+  <si>
+    <t>Katerina Siniakova</t>
+  </si>
+  <si>
+    <t>Olga Danilovic</t>
+  </si>
+  <si>
+    <t>Sebastian Baez</t>
+  </si>
+  <si>
+    <t>Ana Bogdan</t>
+  </si>
+  <si>
+    <t>Ferreira Silva Frederico</t>
+  </si>
+  <si>
+    <t>Felipe Meligeni Alves</t>
+  </si>
+  <si>
+    <t>Luciano Darderi</t>
+  </si>
+  <si>
+    <t>Andrea Pellegrino</t>
+  </si>
+  <si>
+    <t>Vitaliy Sachko</t>
+  </si>
+  <si>
+    <t>Marc Andrea Huesler</t>
+  </si>
+  <si>
+    <t>Strong Kirchheimer</t>
+  </si>
+  <si>
+    <t>Jason Kubler</t>
+  </si>
+  <si>
+    <t>Susan Bandecchi</t>
+  </si>
+  <si>
+    <t>Laura Pigossi</t>
+  </si>
+  <si>
+    <t>Andrey Chepelev</t>
+  </si>
+  <si>
+    <t>Tristan Lamasine</t>
+  </si>
+  <si>
+    <t>Mattia Bellucci</t>
+  </si>
+  <si>
+    <t>Eva Lys</t>
+  </si>
+  <si>
+    <t>Zsombor Piros</t>
+  </si>
+  <si>
+    <t>Federico Coria</t>
+  </si>
+  <si>
+    <t>Leolia Jeanjean</t>
+  </si>
+  <si>
+    <t>Jerome Kym</t>
+  </si>
+  <si>
+    <t>Laurent Lokoli</t>
+  </si>
+  <si>
+    <t>Alexis Galarneau</t>
+  </si>
+  <si>
+    <t>Steve Johnson</t>
+  </si>
+  <si>
+    <t>Dominic Thiem</t>
+  </si>
+  <si>
+    <t>Alex Rybakov</t>
+  </si>
+  <si>
     <t>Benjamin Bonzi</t>
   </si>
   <si>
-    <t>Anhelina Kalinina</t>
-  </si>
-  <si>
-    <t>Petra Martic</t>
-  </si>
-  <si>
-    <t>Yibing Wu</t>
-  </si>
-  <si>
-    <t>Arthur Fils</t>
-  </si>
-  <si>
-    <t>Marco Cecchinato</t>
-  </si>
-  <si>
-    <t>Martina Trevisan</t>
-  </si>
-  <si>
-    <t>Pablo Carreno Busta</t>
-  </si>
-  <si>
-    <t>Aidan Mchugh</t>
-  </si>
-  <si>
-    <t>Lukas Klein</t>
-  </si>
-  <si>
-    <t>Sebastian Ofner</t>
-  </si>
-  <si>
-    <t>Franco Agamenone</t>
-  </si>
-  <si>
-    <t>Irina Camelia Begu</t>
-  </si>
-  <si>
-    <t>Norbert Gombos</t>
-  </si>
-  <si>
-    <t>Aliaksandra Sasnovich</t>
-  </si>
-  <si>
-    <t>Quentin Halys</t>
-  </si>
-  <si>
-    <t>Cristina Bucsa</t>
-  </si>
-  <si>
-    <t>Jack Sock</t>
-  </si>
-  <si>
-    <t>Steve Johnson</t>
-  </si>
-  <si>
-    <t>Hugo Gaston</t>
-  </si>
-  <si>
-    <t>Joris De Loore</t>
-  </si>
-  <si>
-    <t>David Ionel Nicholas</t>
-  </si>
-  <si>
-    <t>Jason Kubler</t>
-  </si>
-  <si>
-    <t>Max Houkes</t>
-  </si>
-  <si>
-    <t>Max Purcell</t>
-  </si>
-  <si>
-    <t>Francisco Cerundolo</t>
-  </si>
-  <si>
-    <t>Patrick Kypson</t>
-  </si>
-  <si>
-    <t>Despina Papamichail</t>
-  </si>
-  <si>
-    <t>Maarten Jong Alexander</t>
-  </si>
-  <si>
-    <t>Peter Gojowczyk</t>
-  </si>
-  <si>
-    <t>Hady Habib</t>
-  </si>
-  <si>
-    <t>Mitchell Krueger</t>
-  </si>
-  <si>
-    <t>Elias Ymer</t>
+    <t>Roberto Quiroz</t>
+  </si>
+  <si>
+    <t>Alexandra Krunic</t>
+  </si>
+  <si>
+    <t>Riccardo Bonadio</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya</t>
+  </si>
+  <si>
+    <t>Alejandro Davidovich Fokina</t>
   </si>
   <si>
     <t>Xiyu Wang</t>
   </si>
   <si>
-    <t>Shintaro Mochizuki</t>
-  </si>
-  <si>
-    <t>Kamilla Rakhimova</t>
-  </si>
-  <si>
-    <t>Louis Wessels</t>
-  </si>
-  <si>
-    <t>Adrian Andreev</t>
-  </si>
-  <si>
-    <t>Clara Burel</t>
-  </si>
-  <si>
-    <t>Ekaterine Gorgodze</t>
-  </si>
-  <si>
-    <t>Christopher Eubanks</t>
-  </si>
-  <si>
-    <t>Katerina Siniakova</t>
-  </si>
-  <si>
-    <t>Erika Andreeva</t>
-  </si>
-  <si>
-    <t>Ulises Blanch</t>
-  </si>
-  <si>
-    <t>Ivan Gakhov</t>
-  </si>
-  <si>
-    <t>Raul Brancaccio</t>
-  </si>
-  <si>
-    <t>Kateryna Baindl</t>
-  </si>
-  <si>
-    <t>Albert Ramos Vinolas</t>
-  </si>
-  <si>
-    <t>Juan Pablo Ficovich</t>
-  </si>
-  <si>
-    <t>Oleksii Krutykh</t>
-  </si>
-  <si>
-    <t>Cedrik Marcel Stebe</t>
-  </si>
-  <si>
-    <t>Filip Horansky</t>
-  </si>
-  <si>
-    <t>Anastasia Potapova</t>
-  </si>
-  <si>
-    <t>Matteo Gigante</t>
-  </si>
-  <si>
-    <t>Bernarda Pera</t>
-  </si>
-  <si>
-    <t>James Duckworth</t>
-  </si>
-  <si>
-    <t>Simona Waltert</t>
-  </si>
-  <si>
-    <t>Alexander Bublik</t>
-  </si>
-  <si>
-    <t>Jiri Vesely</t>
-  </si>
-  <si>
-    <t>Aslan Karatsev</t>
-  </si>
-  <si>
-    <t>Matheus Pucinelli De Almeida</t>
-  </si>
-  <si>
-    <t>Geoffrey Blancaneaux</t>
+    <t>Marius Copil</t>
+  </si>
+  <si>
+    <t>Nikolas Sanchez Izquierdo</t>
+  </si>
+  <si>
+    <t>Dalibor Svrcina</t>
+  </si>
+  <si>
+    <t>Flavio Cobolli</t>
+  </si>
+  <si>
+    <t>Mats Moraing</t>
+  </si>
+  <si>
+    <t>Laslo Djere</t>
+  </si>
+  <si>
+    <t>Aleksandar Kovacevic</t>
   </si>
   <si>
     <t>Felix Auger Aliassime</t>
-  </si>
-  <si>
-    <t>Carlos Taberner</t>
   </si>
   <si>
     <t>Lower</t>
@@ -653,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,31 +648,31 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="E2">
-        <v>1.243334764533346</v>
+        <v>1.056145311844456</v>
       </c>
       <c r="F2">
-        <v>5.15</v>
+        <v>8.67</v>
       </c>
       <c r="G2">
-        <v>5.109564870098796</v>
+        <v>18.8109260978082</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -737,25 +683,25 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="E3">
-        <v>1.238063810770452</v>
+        <v>1.284228527613142</v>
       </c>
       <c r="F3">
-        <v>4.89</v>
+        <v>6.06</v>
       </c>
       <c r="G3">
-        <v>5.200554451193882</v>
+        <v>4.518295677065471</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>1.2</v>
@@ -766,31 +712,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="E4">
-        <v>1.44274350822676</v>
+        <v>1.586637764176712</v>
       </c>
       <c r="F4">
-        <v>4.39</v>
+        <v>5.47</v>
       </c>
       <c r="G4">
-        <v>3.258644071383717</v>
+        <v>2.704629434150735</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J4">
         <v>1.2</v>
@@ -807,22 +753,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="E5">
-        <v>1.295717191371281</v>
+        <v>1.152618398551654</v>
       </c>
       <c r="F5">
-        <v>4.83</v>
+        <v>5.58</v>
       </c>
       <c r="G5">
-        <v>4.381609284745547</v>
+        <v>7.552289956453349</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5">
         <v>40</v>
@@ -836,37 +782,37 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="E6">
-        <v>1.89685126844701</v>
+        <v>1.178573475211778</v>
       </c>
       <c r="F6">
-        <v>4.47</v>
+        <v>4.34</v>
       </c>
       <c r="G6">
-        <v>2.115012081915882</v>
+        <v>6.599935818094233</v>
       </c>
       <c r="H6">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J6">
         <v>1.2</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -877,28 +823,28 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E7">
-        <v>1.24060931348543</v>
+        <v>1.512906231662376</v>
       </c>
       <c r="F7">
-        <v>4.58</v>
+        <v>3.92</v>
       </c>
       <c r="G7">
-        <v>5.156115095937698</v>
+        <v>2.949674108577132</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>40</v>
       </c>
       <c r="J7">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -906,31 +852,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="E8">
-        <v>1.377573914477004</v>
+        <v>1.568011878738535</v>
       </c>
       <c r="F8">
-        <v>4.02</v>
+        <v>3.7</v>
       </c>
       <c r="G8">
-        <v>3.648488048717955</v>
+        <v>2.760526561910718</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J8">
         <v>1.3</v>
@@ -941,37 +887,37 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>1.29</v>
+      </c>
+      <c r="E9">
+        <v>1.257535622514821</v>
+      </c>
+      <c r="F9">
+        <v>3.59</v>
+      </c>
+      <c r="G9">
+        <v>4.882957977754909</v>
+      </c>
+      <c r="H9">
+        <v>66</v>
+      </c>
+      <c r="I9">
         <v>60</v>
-      </c>
-      <c r="D9">
-        <v>1.23</v>
-      </c>
-      <c r="E9">
-        <v>1.707877161097336</v>
-      </c>
-      <c r="F9">
-        <v>4.09</v>
-      </c>
-      <c r="G9">
-        <v>2.41267447935433</v>
-      </c>
-      <c r="H9">
-        <v>54</v>
-      </c>
-      <c r="I9">
-        <v>50</v>
       </c>
       <c r="J9">
         <v>1.3</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -982,28 +928,28 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="E10">
-        <v>1.41703034340368</v>
+        <v>1.454916797413282</v>
       </c>
       <c r="F10">
-        <v>4.07</v>
+        <v>3.39</v>
       </c>
       <c r="G10">
-        <v>3.397907048773217</v>
+        <v>3.198204167632705</v>
       </c>
       <c r="H10">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1017,28 +963,28 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="E11">
-        <v>1.357663817988219</v>
+        <v>1.849574617374824</v>
       </c>
       <c r="F11">
-        <v>3.89</v>
+        <v>3.22</v>
       </c>
       <c r="G11">
-        <v>3.795921616071714</v>
+        <v>2.177059647909431</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -1046,37 +992,37 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="E12">
-        <v>1.365759305765522</v>
+        <v>1.228230696860496</v>
       </c>
       <c r="F12">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="G12">
-        <v>3.734038435213658</v>
+        <v>5.38153155450093</v>
       </c>
       <c r="H12">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J12">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1087,63 +1033,63 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="E13">
-        <v>1.211919810654001</v>
+        <v>1.3821035003666</v>
       </c>
       <c r="F13">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="G13">
-        <v>5.71876601302125</v>
+        <v>3.617091963409325</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="E14">
-        <v>1.490828929313543</v>
+        <v>1.9726470531398</v>
       </c>
       <c r="F14">
-        <v>3.33</v>
+        <v>2.72</v>
       </c>
       <c r="G14">
-        <v>3.037369723497281</v>
+        <v>2.028122171112225</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1151,37 +1097,37 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="E15">
-        <v>1.728470188498434</v>
+        <v>1.129202573520498</v>
       </c>
       <c r="F15">
-        <v>3.23</v>
+        <v>2.71</v>
       </c>
       <c r="G15">
-        <v>2.372739771357369</v>
+        <v>8.739783912596339</v>
       </c>
       <c r="H15">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J15">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1192,28 +1138,28 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="E16">
-        <v>1.340745926290542</v>
+        <v>1.973105652181113</v>
       </c>
       <c r="F16">
-        <v>3.33</v>
+        <v>2.46</v>
       </c>
       <c r="G16">
-        <v>3.934737946499573</v>
+        <v>2.027637644235861</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J16">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
@@ -1227,63 +1173,63 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="E17">
-        <v>1.217088874600385</v>
+        <v>1.912182990684181</v>
       </c>
       <c r="F17">
-        <v>3.23</v>
+        <v>2.31</v>
       </c>
       <c r="G17">
-        <v>5.606408328574137</v>
+        <v>2.096271263784421</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I17">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J17">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="E18">
-        <v>1.539279763893213</v>
+        <v>1.923431292496352</v>
       </c>
       <c r="F18">
-        <v>3.21</v>
+        <v>2.16</v>
       </c>
       <c r="G18">
-        <v>2.854325096088748</v>
+        <v>2.082917601044963</v>
       </c>
       <c r="H18">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I18">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
@@ -1291,37 +1237,37 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="E19">
-        <v>1.43816781090614</v>
+        <v>1.572206818603179</v>
       </c>
       <c r="F19">
-        <v>3.12</v>
+        <v>2.25</v>
       </c>
       <c r="G19">
-        <v>3.282230631985445</v>
+        <v>2.747619859618437</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1332,31 +1278,31 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="E20">
-        <v>1.515419836794371</v>
+        <v>1.64364475350101</v>
       </c>
       <c r="F20">
-        <v>3.13</v>
+        <v>2.11</v>
       </c>
       <c r="G20">
-        <v>2.940165916429316</v>
+        <v>2.553652064373474</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1367,31 +1313,31 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="E21">
-        <v>1.304027314351926</v>
+        <v>1.628103483650695</v>
       </c>
       <c r="F21">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="G21">
-        <v>4.28917815207371</v>
+        <v>2.592094338002632</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21">
         <v>30</v>
       </c>
       <c r="J21">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1402,28 +1348,28 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="E22">
-        <v>1.943593460728837</v>
+        <v>1.941381549907341</v>
       </c>
       <c r="F22">
-        <v>2.76</v>
+        <v>2.05</v>
       </c>
       <c r="G22">
-        <v>2.059778433847554</v>
+        <v>2.062268535110369</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="s">
         <v>10</v>
@@ -1431,104 +1377,104 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="E23">
-        <v>1.802228659814131</v>
+        <v>1.608526242711675</v>
       </c>
       <c r="F23">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="G23">
-        <v>2.246527393114689</v>
+        <v>2.643314502828777</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J23">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>1.42</v>
+        <v>1.79</v>
       </c>
       <c r="E24">
-        <v>1.351753490171538</v>
+        <v>1.93011208308527</v>
       </c>
       <c r="F24">
-        <v>2.85</v>
+        <v>2.01</v>
       </c>
       <c r="G24">
-        <v>3.842900007935481</v>
+        <v>2.075139242017914</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="E25">
-        <v>1.659754753180931</v>
+        <v>1.892456674610455</v>
       </c>
       <c r="F25">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="G25">
-        <v>2.515714733662193</v>
+        <v>2.12050257278482</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I25">
         <v>40</v>
       </c>
       <c r="J25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
@@ -1536,34 +1482,34 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="E26">
-        <v>1.775485886068333</v>
+        <v>1.929837460212126</v>
       </c>
       <c r="F26">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="G26">
-        <v>2.289514120069857</v>
+        <v>2.075456779050253</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I26">
         <v>40</v>
       </c>
       <c r="J26">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
@@ -1571,107 +1517,107 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="E27">
-        <v>1.926812502065258</v>
+        <v>1.729408887187485</v>
       </c>
       <c r="F27">
-        <v>2.63</v>
+        <v>1.87</v>
       </c>
       <c r="G27">
-        <v>2.078966886799277</v>
+        <v>2.37097315040386</v>
       </c>
       <c r="H27">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I27">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J27">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K27" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>1.49</v>
+        <v>1.96</v>
       </c>
       <c r="E28">
-        <v>1.469943955922008</v>
+        <v>1.818239884869642</v>
       </c>
       <c r="F28">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="G28">
-        <v>3.127913312637562</v>
+        <v>2.22213548678248</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I28">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="E29">
-        <v>1.667544862568016</v>
+        <v>1.95425659536603</v>
       </c>
       <c r="F29">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="G29">
-        <v>2.498026658692337</v>
+        <v>2.047936168171229</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J29">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="K29" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1682,66 +1628,66 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D30">
-        <v>1.56</v>
+        <v>2.7</v>
       </c>
       <c r="E30">
-        <v>1.584359344189217</v>
+        <v>1.851587611926607</v>
       </c>
       <c r="F30">
-        <v>2.42</v>
+        <v>1.46</v>
       </c>
       <c r="G30">
-        <v>2.71127579278718</v>
+        <v>2.174277298066408</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>1.65</v>
+        <v>3.12</v>
       </c>
       <c r="E31">
-        <v>1.881407886203795</v>
+        <v>1.809808716994735</v>
       </c>
       <c r="F31">
-        <v>2.16</v>
+        <v>1.34</v>
       </c>
       <c r="G31">
-        <v>2.134548505467746</v>
+        <v>2.234859515603982</v>
       </c>
       <c r="H31">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1752,346 +1698,31 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D32">
-        <v>1.66</v>
+        <v>3.56</v>
       </c>
       <c r="E32">
-        <v>1.381761934646409</v>
+        <v>1.9516211695883</v>
       </c>
       <c r="F32">
-        <v>2.21</v>
+        <v>1.29</v>
       </c>
       <c r="G32">
-        <v>3.619433498329812</v>
+        <v>2.050838329324504</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J32">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33">
-        <v>1.75</v>
-      </c>
-      <c r="E33">
-        <v>1.460032677925018</v>
-      </c>
-      <c r="F33">
-        <v>2.07</v>
-      </c>
-      <c r="G33">
-        <v>3.173758621910316</v>
-      </c>
-      <c r="H33">
-        <v>79</v>
-      </c>
-      <c r="I33">
-        <v>70</v>
-      </c>
-      <c r="J33">
-        <v>1.8</v>
-      </c>
-      <c r="K33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34">
-        <v>1.84</v>
-      </c>
-      <c r="E34">
-        <v>1.418060699269484</v>
-      </c>
-      <c r="F34">
-        <v>1.95</v>
-      </c>
-      <c r="G34">
-        <v>3.391997147178369</v>
-      </c>
-      <c r="H34">
-        <v>29</v>
-      </c>
-      <c r="I34">
-        <v>20</v>
-      </c>
-      <c r="J34">
-        <v>1.9</v>
-      </c>
-      <c r="K34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35">
-        <v>1.88</v>
-      </c>
-      <c r="E35">
-        <v>1.596850733612473</v>
-      </c>
-      <c r="F35">
-        <v>1.91</v>
-      </c>
-      <c r="G35">
-        <v>2.675460787234764</v>
-      </c>
-      <c r="H35">
-        <v>55</v>
-      </c>
-      <c r="I35">
-        <v>50</v>
-      </c>
-      <c r="J35">
-        <v>1.9</v>
-      </c>
-      <c r="K35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36">
-        <v>2.05</v>
-      </c>
-      <c r="E36">
-        <v>1.818425292957983</v>
-      </c>
-      <c r="F36">
-        <v>1.77</v>
-      </c>
-      <c r="G36">
-        <v>2.221858621189189</v>
-      </c>
-      <c r="H36">
-        <v>47</v>
-      </c>
-      <c r="I36">
-        <v>40</v>
-      </c>
-      <c r="J36">
-        <v>2.1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37">
-        <v>2.05</v>
-      </c>
-      <c r="E37">
-        <v>1.882342984028513</v>
-      </c>
-      <c r="F37">
-        <v>1.77</v>
-      </c>
-      <c r="G37">
-        <v>2.133346122881037</v>
-      </c>
-      <c r="H37">
-        <v>53</v>
-      </c>
-      <c r="I37">
-        <v>50</v>
-      </c>
-      <c r="J37">
-        <v>2.1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38">
-        <v>2.06</v>
-      </c>
-      <c r="E38">
-        <v>1.650663481496721</v>
-      </c>
-      <c r="F38">
-        <v>1.71</v>
-      </c>
-      <c r="G38">
-        <v>2.536892769361667</v>
-      </c>
-      <c r="H38">
-        <v>33</v>
-      </c>
-      <c r="I38">
-        <v>30</v>
-      </c>
-      <c r="J38">
-        <v>2.1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39">
-        <v>2.55</v>
-      </c>
-      <c r="E39">
-        <v>1.842845156065298</v>
-      </c>
-      <c r="F39">
-        <v>1.48</v>
-      </c>
-      <c r="G39">
-        <v>2.186457551311509</v>
-      </c>
-      <c r="H39">
-        <v>42</v>
-      </c>
-      <c r="I39">
-        <v>40</v>
-      </c>
-      <c r="J39">
-        <v>2.6</v>
-      </c>
-      <c r="K39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40">
-        <v>3.63</v>
-      </c>
-      <c r="E40">
-        <v>1.961754116068471</v>
-      </c>
-      <c r="F40">
-        <v>1.28</v>
-      </c>
-      <c r="G40">
-        <v>2.039766800362522</v>
-      </c>
-      <c r="H40">
-        <v>69</v>
-      </c>
-      <c r="I40">
-        <v>60</v>
-      </c>
-      <c r="J40">
-        <v>3.7</v>
-      </c>
-      <c r="K40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41">
-        <v>4.85</v>
-      </c>
-      <c r="E41">
-        <v>1.646054584418862</v>
-      </c>
-      <c r="F41">
-        <v>1.16</v>
-      </c>
-      <c r="G41">
-        <v>2.547856828381644</v>
-      </c>
-      <c r="H41">
-        <v>66</v>
-      </c>
-      <c r="I41">
-        <v>60</v>
-      </c>
-      <c r="J41">
-        <v>4.9</v>
-      </c>
-      <c r="K41" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Bets_Today.xlsx
+++ b/Bets_Today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Sex</t>
   </si>
@@ -49,196 +49,184 @@
     <t>Higher</t>
   </si>
   <si>
+    <t>Mens</t>
+  </si>
+  <si>
     <t>Womens</t>
   </si>
   <si>
-    <t>Mens</t>
+    <t>Tallon Griekspoor</t>
+  </si>
+  <si>
+    <t>Pedro Cachin</t>
+  </si>
+  <si>
+    <t>Yoshihito Nishioka</t>
+  </si>
+  <si>
+    <t>Roberto Carballes Baena</t>
+  </si>
+  <si>
+    <t>Marco Cecchinato</t>
+  </si>
+  <si>
+    <t>Sebastian Baez</t>
+  </si>
+  <si>
+    <t>Andrey Rublev</t>
+  </si>
+  <si>
+    <t>Jason Kubler</t>
   </si>
   <si>
     <t>Belinda Bencic</t>
   </si>
   <si>
+    <t>Bjorn Fratangelo</t>
+  </si>
+  <si>
+    <t>Ben Shelton</t>
+  </si>
+  <si>
+    <t>Felipe Meligeni Alves</t>
+  </si>
+  <si>
+    <t>Andy Murray</t>
+  </si>
+  <si>
+    <t>Francisco Cerundolo</t>
+  </si>
+  <si>
+    <t>Jule Niemeier</t>
+  </si>
+  <si>
+    <t>Bernabe Zapata Miralles</t>
+  </si>
+  <si>
+    <t>Bernarda Pera</t>
+  </si>
+  <si>
+    <t>Martina Trevisan</t>
+  </si>
+  <si>
+    <t>Geoffrey Blancaneaux</t>
+  </si>
+  <si>
+    <t>Norbert Gombos</t>
+  </si>
+  <si>
+    <t>Max Houkes</t>
+  </si>
+  <si>
+    <t>Lukas Klein</t>
+  </si>
+  <si>
+    <t>Diego Schwartzman</t>
+  </si>
+  <si>
+    <t>Caroline Garcia</t>
+  </si>
+  <si>
+    <t>Xiyu Wang</t>
+  </si>
+  <si>
+    <t>Francesco Maestrelli</t>
+  </si>
+  <si>
+    <t>Yibing Wu</t>
+  </si>
+  <si>
+    <t>Luciano Darderi</t>
+  </si>
+  <si>
+    <t>Lesia Tsurenko</t>
+  </si>
+  <si>
+    <t>Vitaliy Sachko</t>
+  </si>
+  <si>
+    <t>Jerome Kym</t>
+  </si>
+  <si>
+    <t>Yasutaka Uchiyama</t>
+  </si>
+  <si>
+    <t>Luca Van Assche</t>
+  </si>
+  <si>
+    <t>Filip Horansky</t>
+  </si>
+  <si>
+    <t>Dominic Thiem</t>
+  </si>
+  <si>
+    <t>Laslo Djere</t>
+  </si>
+  <si>
+    <t>James Duckworth</t>
+  </si>
+  <si>
+    <t>Petra Martic</t>
+  </si>
+  <si>
+    <t>Juan Pablo Ficovich</t>
+  </si>
+  <si>
+    <t>Aleksandar Kovacevic</t>
+  </si>
+  <si>
+    <t>Ferreira Silva Frederico</t>
+  </si>
+  <si>
+    <t>Alexander Bublik</t>
+  </si>
+  <si>
+    <t>Aslan Karatsev</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova</t>
+  </si>
+  <si>
+    <t>Taro Daniel</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto</t>
+  </si>
+  <si>
+    <t>Anna Bondar</t>
+  </si>
+  <si>
+    <t>Matheus Pucinelli De Almeida</t>
+  </si>
+  <si>
+    <t>Sebastian Ofner</t>
+  </si>
+  <si>
+    <t>Ivan Gakhov</t>
+  </si>
+  <si>
+    <t>Pablo Andujar</t>
+  </si>
+  <si>
+    <t>Pablo Carreno Busta</t>
+  </si>
+  <si>
+    <t>Sara Sorribes Tormo</t>
+  </si>
+  <si>
+    <t>Alexandra Krunic</t>
+  </si>
+  <si>
+    <t>Flavio Cobolli</t>
+  </si>
+  <si>
+    <t>Jeffrey John Wolf</t>
+  </si>
+  <si>
+    <t>Jiri Lehecka</t>
+  </si>
+  <si>
     <t>Yulia Putintseva</t>
-  </si>
-  <si>
-    <t>Jiri Lehecka</t>
-  </si>
-  <si>
-    <t>Bernabe Zapata Miralles</t>
-  </si>
-  <si>
-    <t>Pedro Cachin</t>
-  </si>
-  <si>
-    <t>Jule Niemeier</t>
-  </si>
-  <si>
-    <t>Tallon Griekspoor</t>
-  </si>
-  <si>
-    <t>Andrey Rublev</t>
-  </si>
-  <si>
-    <t>Caroline Garcia</t>
-  </si>
-  <si>
-    <t>Alexandre Muller</t>
-  </si>
-  <si>
-    <t>Taro Daniel</t>
-  </si>
-  <si>
-    <t>Yoshihito Nishioka</t>
-  </si>
-  <si>
-    <t>Maxime Cressy</t>
-  </si>
-  <si>
-    <t>Roberto Bautista Agut</t>
-  </si>
-  <si>
-    <t>Ben Shelton</t>
-  </si>
-  <si>
-    <t>John Isner</t>
-  </si>
-  <si>
-    <t>Juan Pablo Ficovich</t>
-  </si>
-  <si>
-    <t>Shuai Zhang</t>
-  </si>
-  <si>
-    <t>Francesco Maestrelli</t>
-  </si>
-  <si>
-    <t>Katerina Siniakova</t>
-  </si>
-  <si>
-    <t>Olga Danilovic</t>
-  </si>
-  <si>
-    <t>Sebastian Baez</t>
-  </si>
-  <si>
-    <t>Ana Bogdan</t>
-  </si>
-  <si>
-    <t>Ferreira Silva Frederico</t>
-  </si>
-  <si>
-    <t>Felipe Meligeni Alves</t>
-  </si>
-  <si>
-    <t>Luciano Darderi</t>
-  </si>
-  <si>
-    <t>Andrea Pellegrino</t>
-  </si>
-  <si>
-    <t>Vitaliy Sachko</t>
-  </si>
-  <si>
-    <t>Marc Andrea Huesler</t>
-  </si>
-  <si>
-    <t>Strong Kirchheimer</t>
-  </si>
-  <si>
-    <t>Jason Kubler</t>
-  </si>
-  <si>
-    <t>Susan Bandecchi</t>
-  </si>
-  <si>
-    <t>Laura Pigossi</t>
-  </si>
-  <si>
-    <t>Andrey Chepelev</t>
-  </si>
-  <si>
-    <t>Tristan Lamasine</t>
-  </si>
-  <si>
-    <t>Mattia Bellucci</t>
-  </si>
-  <si>
-    <t>Eva Lys</t>
-  </si>
-  <si>
-    <t>Zsombor Piros</t>
-  </si>
-  <si>
-    <t>Federico Coria</t>
-  </si>
-  <si>
-    <t>Leolia Jeanjean</t>
-  </si>
-  <si>
-    <t>Jerome Kym</t>
-  </si>
-  <si>
-    <t>Laurent Lokoli</t>
-  </si>
-  <si>
-    <t>Alexis Galarneau</t>
-  </si>
-  <si>
-    <t>Steve Johnson</t>
-  </si>
-  <si>
-    <t>Dominic Thiem</t>
-  </si>
-  <si>
-    <t>Alex Rybakov</t>
-  </si>
-  <si>
-    <t>Benjamin Bonzi</t>
-  </si>
-  <si>
-    <t>Roberto Quiroz</t>
-  </si>
-  <si>
-    <t>Alexandra Krunic</t>
-  </si>
-  <si>
-    <t>Riccardo Bonadio</t>
-  </si>
-  <si>
-    <t>Elisabetta Cocciaretto</t>
-  </si>
-  <si>
-    <t>Anna Kalinskaya</t>
-  </si>
-  <si>
-    <t>Alejandro Davidovich Fokina</t>
-  </si>
-  <si>
-    <t>Xiyu Wang</t>
-  </si>
-  <si>
-    <t>Marius Copil</t>
-  </si>
-  <si>
-    <t>Nikolas Sanchez Izquierdo</t>
-  </si>
-  <si>
-    <t>Dalibor Svrcina</t>
-  </si>
-  <si>
-    <t>Flavio Cobolli</t>
-  </si>
-  <si>
-    <t>Mats Moraing</t>
-  </si>
-  <si>
-    <t>Laslo Djere</t>
-  </si>
-  <si>
-    <t>Aleksandar Kovacevic</t>
-  </si>
-  <si>
-    <t>Felix Auger Aliassime</t>
   </si>
   <si>
     <t>Lower</t>
@@ -599,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,31 +636,31 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="E2">
-        <v>1.056145311844456</v>
+        <v>1.23292149586411</v>
       </c>
       <c r="F2">
-        <v>8.67</v>
+        <v>5.42</v>
       </c>
       <c r="G2">
-        <v>18.8109260978082</v>
+        <v>5.293292022233173</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J2">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -683,25 +671,25 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="E3">
-        <v>1.284228527613142</v>
+        <v>1.412970322797375</v>
       </c>
       <c r="F3">
-        <v>6.06</v>
+        <v>4.41</v>
       </c>
       <c r="G3">
-        <v>4.518295677065471</v>
+        <v>3.421481507983934</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>1.2</v>
@@ -712,69 +700,69 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="E4">
-        <v>1.586637764176712</v>
+        <v>1.235237660139952</v>
       </c>
       <c r="F4">
-        <v>5.47</v>
+        <v>3.65</v>
       </c>
       <c r="G4">
-        <v>2.704629434150735</v>
+        <v>5.25102000846745</v>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I4">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="E5">
-        <v>1.152618398551654</v>
+        <v>1.976706603010682</v>
       </c>
       <c r="F5">
-        <v>5.58</v>
+        <v>3.39</v>
       </c>
       <c r="G5">
-        <v>7.552289956453349</v>
+        <v>2.023848919335158</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -782,37 +770,37 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>1.4</v>
+      </c>
+      <c r="E6">
+        <v>1.471712234775705</v>
+      </c>
+      <c r="F6">
+        <v>2.83</v>
+      </c>
+      <c r="G6">
+        <v>3.119936533924101</v>
+      </c>
+      <c r="H6">
         <v>48</v>
       </c>
-      <c r="D6">
-        <v>1.19</v>
-      </c>
-      <c r="E6">
-        <v>1.178573475211778</v>
-      </c>
-      <c r="F6">
-        <v>4.34</v>
-      </c>
-      <c r="G6">
-        <v>6.599935818094233</v>
-      </c>
-      <c r="H6">
-        <v>64</v>
-      </c>
       <c r="I6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -823,168 +811,168 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="E7">
-        <v>1.512906231662376</v>
+        <v>1.186056856646233</v>
       </c>
       <c r="F7">
-        <v>3.92</v>
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.949674108577132</v>
+        <v>6.374701142572729</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J7">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="E8">
-        <v>1.568011878738535</v>
+        <v>1.30768669670191</v>
       </c>
       <c r="F8">
-        <v>3.7</v>
+        <v>2.77</v>
       </c>
       <c r="G8">
-        <v>2.760526561910718</v>
+        <v>4.250059267166857</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I8">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J8">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="E9">
-        <v>1.257535622514821</v>
+        <v>1.247659062906259</v>
       </c>
       <c r="F9">
-        <v>3.59</v>
+        <v>2.75</v>
       </c>
       <c r="G9">
-        <v>4.882957977754909</v>
+        <v>5.037809027721738</v>
       </c>
       <c r="H9">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J9">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="E10">
-        <v>1.454916797413282</v>
+        <v>1.381171348765237</v>
       </c>
       <c r="F10">
-        <v>3.39</v>
+        <v>2.67</v>
       </c>
       <c r="G10">
-        <v>3.198204167632705</v>
+        <v>3.623492041674674</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="E11">
-        <v>1.849574617374824</v>
+        <v>1.994725595086942</v>
       </c>
       <c r="F11">
-        <v>3.22</v>
+        <v>2.53</v>
       </c>
       <c r="G11">
-        <v>2.177059647909431</v>
+        <v>2.005302371768766</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -992,60 +980,60 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="E12">
-        <v>1.228230696860496</v>
+        <v>1.50038524347888</v>
       </c>
       <c r="F12">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="G12">
-        <v>5.38153155450093</v>
+        <v>2.998460212470688</v>
       </c>
       <c r="H12">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I12">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="E13">
-        <v>1.3821035003666</v>
+        <v>1.619470282502113</v>
       </c>
       <c r="F13">
-        <v>3.08</v>
+        <v>2.35</v>
       </c>
       <c r="G13">
-        <v>3.617091963409325</v>
+        <v>2.614282441380211</v>
       </c>
       <c r="H13">
         <v>47</v>
@@ -1054,7 +1042,7 @@
         <v>40</v>
       </c>
       <c r="J13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
@@ -1062,72 +1050,72 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>1.57</v>
+      </c>
+      <c r="E14">
+        <v>1.515966275941181</v>
+      </c>
+      <c r="F14">
+        <v>2.42</v>
+      </c>
+      <c r="G14">
+        <v>2.938111164680069</v>
+      </c>
+      <c r="H14">
         <v>56</v>
-      </c>
-      <c r="D14">
-        <v>1.46</v>
-      </c>
-      <c r="E14">
-        <v>1.9726470531398</v>
-      </c>
-      <c r="F14">
-        <v>2.72</v>
-      </c>
-      <c r="G14">
-        <v>2.028122171112225</v>
-      </c>
-      <c r="H14">
-        <v>54</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
       <c r="J14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="E15">
-        <v>1.129202573520498</v>
+        <v>1.579117016354164</v>
       </c>
       <c r="F15">
-        <v>2.71</v>
+        <v>2.25</v>
       </c>
       <c r="G15">
-        <v>8.739783912596339</v>
+        <v>2.726766735841243</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1138,60 +1126,60 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="E16">
-        <v>1.973105652181113</v>
+        <v>1.588680701613272</v>
       </c>
       <c r="F16">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="G16">
-        <v>2.027637644235861</v>
+        <v>2.698713746279625</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J16">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="E17">
-        <v>1.912182990684181</v>
+        <v>1.866144156724184</v>
       </c>
       <c r="F17">
-        <v>2.31</v>
+        <v>2.11</v>
       </c>
       <c r="G17">
-        <v>2.096271263784421</v>
+        <v>2.154542222835132</v>
       </c>
       <c r="H17">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <v>1.7</v>
@@ -1208,28 +1196,28 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="E18">
-        <v>1.923431292496352</v>
+        <v>1.918962488628654</v>
       </c>
       <c r="F18">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G18">
-        <v>2.082917601044963</v>
+        <v>2.088183698871404</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J18">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
@@ -1237,72 +1225,72 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="E19">
-        <v>1.572206818603179</v>
+        <v>1.702233057126251</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="G19">
-        <v>2.747619859618437</v>
+        <v>2.424028660929608</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I19">
         <v>40</v>
       </c>
       <c r="J19">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="E20">
-        <v>1.64364475350101</v>
+        <v>1.994049208610507</v>
       </c>
       <c r="F20">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="G20">
-        <v>2.553652064373474</v>
+        <v>2.005986415298103</v>
       </c>
       <c r="H20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20">
         <v>40</v>
       </c>
       <c r="J20">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1313,31 +1301,31 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="E21">
-        <v>1.628103483650695</v>
+        <v>1.834330535757519</v>
       </c>
       <c r="F21">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="G21">
-        <v>2.592094338002632</v>
+        <v>2.198565744800487</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1348,66 +1336,66 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="E22">
-        <v>1.941381549907341</v>
+        <v>1.784763272633531</v>
       </c>
       <c r="F22">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="G22">
-        <v>2.062268535110369</v>
+        <v>2.274269623556886</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K22" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="E23">
-        <v>1.608526242711675</v>
+        <v>1.430902598524012</v>
       </c>
       <c r="F23">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="G23">
-        <v>2.643314502828777</v>
+        <v>3.320710070965782</v>
       </c>
       <c r="H23">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="I23">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1418,31 +1406,31 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="E24">
-        <v>1.93011208308527</v>
+        <v>1.768038764549601</v>
       </c>
       <c r="F24">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="G24">
-        <v>2.075139242017914</v>
+        <v>2.302017614418756</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1453,31 +1441,31 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="E25">
-        <v>1.892456674610455</v>
+        <v>1.669750850666229</v>
       </c>
       <c r="F25">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="G25">
-        <v>2.12050257278482</v>
+        <v>2.49309254180903</v>
       </c>
       <c r="H25">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I25">
         <v>40</v>
       </c>
       <c r="J25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1488,136 +1476,136 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="E26">
-        <v>1.929837460212126</v>
+        <v>1.880465305641345</v>
       </c>
       <c r="F26">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="G26">
-        <v>2.075456779050253</v>
+        <v>2.135763094346556</v>
       </c>
       <c r="H26">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J26">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="K26" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="E27">
-        <v>1.729408887187485</v>
+        <v>1.642638192771094</v>
       </c>
       <c r="F27">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="G27">
-        <v>2.37097315040386</v>
+        <v>2.556085541209342</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J27">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="E28">
-        <v>1.818239884869642</v>
+        <v>1.706585798997733</v>
       </c>
       <c r="F28">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="G28">
-        <v>2.22213548678248</v>
+        <v>2.41525629501536</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I28">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29">
-        <v>2.1</v>
+        <v>2.57</v>
       </c>
       <c r="E29">
-        <v>1.95425659536603</v>
+        <v>1.927354766926362</v>
       </c>
       <c r="F29">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="G29">
-        <v>2.047936168171229</v>
+        <v>2.078335967705665</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I29">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J29">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1628,101 +1616,31 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="E30">
-        <v>1.851587611926607</v>
+        <v>1.905999259988858</v>
       </c>
       <c r="F30">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="G30">
-        <v>2.174277298066408</v>
+        <v>2.103753660916124</v>
       </c>
       <c r="H30">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I30">
         <v>50</v>
       </c>
       <c r="J30">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="K30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31">
-        <v>3.12</v>
-      </c>
-      <c r="E31">
-        <v>1.809808716994735</v>
-      </c>
-      <c r="F31">
-        <v>1.34</v>
-      </c>
-      <c r="G31">
-        <v>2.234859515603982</v>
-      </c>
-      <c r="H31">
-        <v>29</v>
-      </c>
-      <c r="I31">
-        <v>20</v>
-      </c>
-      <c r="J31">
-        <v>3.2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32">
-        <v>3.56</v>
-      </c>
-      <c r="E32">
-        <v>1.9516211695883</v>
-      </c>
-      <c r="F32">
-        <v>1.29</v>
-      </c>
-      <c r="G32">
-        <v>2.050838329324504</v>
-      </c>
-      <c r="H32">
-        <v>69</v>
-      </c>
-      <c r="I32">
-        <v>60</v>
-      </c>
-      <c r="J32">
-        <v>3.6</v>
-      </c>
-      <c r="K32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Bets_Today.xlsx
+++ b/Bets_Today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>Sex</t>
   </si>
@@ -55,178 +55,238 @@
     <t>Womens</t>
   </si>
   <si>
-    <t>Tallon Griekspoor</t>
-  </si>
-  <si>
-    <t>Pedro Cachin</t>
-  </si>
-  <si>
-    <t>Yoshihito Nishioka</t>
-  </si>
-  <si>
-    <t>Roberto Carballes Baena</t>
+    <t>Roman Safiullin</t>
+  </si>
+  <si>
+    <t>Carlos Alcaraz</t>
+  </si>
+  <si>
+    <t>Casper Ruud</t>
+  </si>
+  <si>
+    <t>Juan Manuel Cerundolo</t>
+  </si>
+  <si>
+    <t>Anett Kontaveit</t>
+  </si>
+  <si>
+    <t>Evgeny Donskoy</t>
+  </si>
+  <si>
+    <t>Matteo Berrettini</t>
+  </si>
+  <si>
+    <t>Yibing Wu</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva</t>
+  </si>
+  <si>
+    <t>Constant Lestienne</t>
+  </si>
+  <si>
+    <t>Albert Ramos Vinolas</t>
+  </si>
+  <si>
+    <t>Roberto Bautista Agut</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti</t>
+  </si>
+  <si>
+    <t>Barbora Krejcikova</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich</t>
+  </si>
+  <si>
+    <t>Andrey Rublev</t>
+  </si>
+  <si>
+    <t>Salvatore Caruso</t>
+  </si>
+  <si>
+    <t>Antoine Bellier</t>
+  </si>
+  <si>
+    <t>Francesco Maestrelli</t>
+  </si>
+  <si>
+    <t>Jurij Rodionov</t>
+  </si>
+  <si>
+    <t>Karen Khachanov</t>
+  </si>
+  <si>
+    <t>Tim Van Rijthoven</t>
+  </si>
+  <si>
+    <t>Felipe Meligeni Alves</t>
+  </si>
+  <si>
+    <t>Sung Nam Ji</t>
+  </si>
+  <si>
+    <t>Caroline Garcia</t>
+  </si>
+  <si>
+    <t>Nicolas Jarry</t>
+  </si>
+  <si>
+    <t>Nuria Parrizas Diaz</t>
+  </si>
+  <si>
+    <t>Bernarda Pera</t>
+  </si>
+  <si>
+    <t>Antoine Escoffier</t>
+  </si>
+  <si>
+    <t>Joao Domingues</t>
+  </si>
+  <si>
+    <t>Zhizhen Zhang</t>
+  </si>
+  <si>
+    <t>Elias Ymer</t>
+  </si>
+  <si>
+    <t>Ferreira Silva Frederico</t>
+  </si>
+  <si>
+    <t>Elahi Galan Daniel</t>
+  </si>
+  <si>
+    <t>Dan Added</t>
+  </si>
+  <si>
+    <t>Aidan Mchugh</t>
+  </si>
+  <si>
+    <t>Federico Delbonis</t>
+  </si>
+  <si>
+    <t>Yanki Erel</t>
+  </si>
+  <si>
+    <t>Li Tu</t>
+  </si>
+  <si>
+    <t>Alafia Ayeni</t>
+  </si>
+  <si>
+    <t>Filip Krajinovic</t>
+  </si>
+  <si>
+    <t>Jiri Lehecka</t>
+  </si>
+  <si>
+    <t>Lorenzo Giustino</t>
+  </si>
+  <si>
+    <t>Andrea Petkovic</t>
+  </si>
+  <si>
+    <t>David Poljak</t>
+  </si>
+  <si>
+    <t>Richard Gasquet</t>
+  </si>
+  <si>
+    <t>Peter Gojowczyk</t>
+  </si>
+  <si>
+    <t>Diane Parry</t>
+  </si>
+  <si>
+    <t>Thiago Seyboth Wild</t>
+  </si>
+  <si>
+    <t>Dominic Stricker</t>
+  </si>
+  <si>
+    <t>Juan Pablo Varillas</t>
+  </si>
+  <si>
+    <t>Elina Avanesyan</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova</t>
+  </si>
+  <si>
+    <t>Maryna Zanevska</t>
+  </si>
+  <si>
+    <t>Francisco Cerundolo</t>
+  </si>
+  <si>
+    <t>Nerman Fatic</t>
+  </si>
+  <si>
+    <t>Maxime Janvier</t>
+  </si>
+  <si>
+    <t>Fa Rodriguez Taverna Santiago</t>
+  </si>
+  <si>
+    <t>Jelle Sels</t>
+  </si>
+  <si>
+    <t>Fabio Fognini</t>
+  </si>
+  <si>
+    <t>Ben Shelton</t>
+  </si>
+  <si>
+    <t>Geoffrey Blancaneaux</t>
+  </si>
+  <si>
+    <t>Benjamin Lock</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto</t>
+  </si>
+  <si>
+    <t>Yannick Hanfmann</t>
+  </si>
+  <si>
+    <t>Julia Grabher</t>
+  </si>
+  <si>
+    <t>Katerina Siniakova</t>
+  </si>
+  <si>
+    <t>Michael Geerts</t>
+  </si>
+  <si>
+    <t>Harold Mayot</t>
   </si>
   <si>
     <t>Marco Cecchinato</t>
   </si>
   <si>
-    <t>Sebastian Baez</t>
-  </si>
-  <si>
-    <t>Andrey Rublev</t>
-  </si>
-  <si>
-    <t>Jason Kubler</t>
-  </si>
-  <si>
-    <t>Belinda Bencic</t>
-  </si>
-  <si>
-    <t>Bjorn Fratangelo</t>
-  </si>
-  <si>
-    <t>Ben Shelton</t>
-  </si>
-  <si>
-    <t>Felipe Meligeni Alves</t>
-  </si>
-  <si>
-    <t>Andy Murray</t>
-  </si>
-  <si>
-    <t>Francisco Cerundolo</t>
-  </si>
-  <si>
-    <t>Jule Niemeier</t>
-  </si>
-  <si>
-    <t>Bernabe Zapata Miralles</t>
-  </si>
-  <si>
-    <t>Bernarda Pera</t>
-  </si>
-  <si>
-    <t>Martina Trevisan</t>
-  </si>
-  <si>
-    <t>Geoffrey Blancaneaux</t>
-  </si>
-  <si>
-    <t>Norbert Gombos</t>
-  </si>
-  <si>
-    <t>Max Houkes</t>
-  </si>
-  <si>
-    <t>Lukas Klein</t>
-  </si>
-  <si>
-    <t>Diego Schwartzman</t>
-  </si>
-  <si>
-    <t>Caroline Garcia</t>
-  </si>
-  <si>
-    <t>Xiyu Wang</t>
-  </si>
-  <si>
-    <t>Francesco Maestrelli</t>
-  </si>
-  <si>
-    <t>Yibing Wu</t>
-  </si>
-  <si>
-    <t>Luciano Darderi</t>
-  </si>
-  <si>
-    <t>Lesia Tsurenko</t>
-  </si>
-  <si>
-    <t>Vitaliy Sachko</t>
-  </si>
-  <si>
-    <t>Jerome Kym</t>
-  </si>
-  <si>
-    <t>Yasutaka Uchiyama</t>
-  </si>
-  <si>
-    <t>Luca Van Assche</t>
-  </si>
-  <si>
-    <t>Filip Horansky</t>
+    <t>Pedro Martinez</t>
+  </si>
+  <si>
+    <t>Nicolas Kicker</t>
+  </si>
+  <si>
+    <t>Aslan Karatsev</t>
+  </si>
+  <si>
+    <t>Gregoire Barrere</t>
+  </si>
+  <si>
+    <t>Max Purcell</t>
   </si>
   <si>
     <t>Dominic Thiem</t>
   </si>
   <si>
-    <t>Laslo Djere</t>
-  </si>
-  <si>
-    <t>James Duckworth</t>
-  </si>
-  <si>
-    <t>Petra Martic</t>
-  </si>
-  <si>
-    <t>Juan Pablo Ficovich</t>
-  </si>
-  <si>
-    <t>Aleksandar Kovacevic</t>
-  </si>
-  <si>
-    <t>Ferreira Silva Frederico</t>
-  </si>
-  <si>
-    <t>Alexander Bublik</t>
-  </si>
-  <si>
-    <t>Aslan Karatsev</t>
-  </si>
-  <si>
-    <t>Anastasia Potapova</t>
-  </si>
-  <si>
-    <t>Taro Daniel</t>
-  </si>
-  <si>
-    <t>Elisabetta Cocciaretto</t>
-  </si>
-  <si>
-    <t>Anna Bondar</t>
-  </si>
-  <si>
-    <t>Matheus Pucinelli De Almeida</t>
-  </si>
-  <si>
-    <t>Sebastian Ofner</t>
-  </si>
-  <si>
-    <t>Ivan Gakhov</t>
-  </si>
-  <si>
-    <t>Pablo Andujar</t>
-  </si>
-  <si>
-    <t>Pablo Carreno Busta</t>
-  </si>
-  <si>
-    <t>Sara Sorribes Tormo</t>
-  </si>
-  <si>
-    <t>Alexandra Krunic</t>
-  </si>
-  <si>
-    <t>Flavio Cobolli</t>
-  </si>
-  <si>
-    <t>Jeffrey John Wolf</t>
-  </si>
-  <si>
-    <t>Jiri Lehecka</t>
-  </si>
-  <si>
-    <t>Yulia Putintseva</t>
+    <t>Dmitry Popko</t>
+  </si>
+  <si>
+    <t>Dominik Koepfer</t>
   </si>
   <si>
     <t>Lower</t>
@@ -587,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,28 +696,28 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>1.07</v>
+      </c>
+      <c r="E2">
+        <v>1.510690859672741</v>
+      </c>
+      <c r="F2">
+        <v>7.84</v>
+      </c>
+      <c r="G2">
+        <v>2.958131775925685</v>
+      </c>
+      <c r="H2">
         <v>42</v>
       </c>
-      <c r="D2">
-        <v>1.14</v>
-      </c>
-      <c r="E2">
-        <v>1.23292149586411</v>
-      </c>
-      <c r="F2">
-        <v>5.42</v>
-      </c>
-      <c r="G2">
-        <v>5.293292022233173</v>
-      </c>
-      <c r="H2">
-        <v>79</v>
-      </c>
       <c r="I2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -671,31 +731,31 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>1.19</v>
       </c>
       <c r="E3">
-        <v>1.412970322797375</v>
+        <v>1.184884267933979</v>
       </c>
       <c r="F3">
-        <v>4.41</v>
+        <v>4.61</v>
       </c>
       <c r="G3">
-        <v>3.421481507983934</v>
+        <v>6.408789028805258</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <v>1.2</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -706,31 +766,31 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="E4">
-        <v>1.235237660139952</v>
+        <v>1.259594361978731</v>
       </c>
       <c r="F4">
-        <v>3.65</v>
+        <v>4.39</v>
       </c>
       <c r="G4">
-        <v>5.25102000846745</v>
+        <v>4.852163784982089</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <v>1.3</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -741,25 +801,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="E5">
-        <v>1.976706603010682</v>
+        <v>1.33610890665049</v>
       </c>
       <c r="F5">
-        <v>3.39</v>
+        <v>3.95</v>
       </c>
       <c r="G5">
-        <v>2.023848919335158</v>
+        <v>3.975226125262643</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -770,34 +830,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="E6">
-        <v>1.471712234775705</v>
+        <v>1.302788502548803</v>
       </c>
       <c r="F6">
-        <v>2.83</v>
+        <v>4.08</v>
       </c>
       <c r="G6">
-        <v>3.119936533924101</v>
+        <v>4.302635310067039</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J6">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -811,31 +871,31 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="E7">
-        <v>1.186056856646233</v>
+        <v>1.468128372089623</v>
       </c>
       <c r="F7">
-        <v>2.77</v>
+        <v>3.58</v>
       </c>
       <c r="G7">
-        <v>6.374701142572729</v>
+        <v>3.136166187783529</v>
       </c>
       <c r="H7">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -846,31 +906,31 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="E8">
-        <v>1.30768669670191</v>
+        <v>1.2566957338146</v>
       </c>
       <c r="F8">
-        <v>2.77</v>
+        <v>3.73</v>
       </c>
       <c r="G8">
-        <v>4.250059267166857</v>
+        <v>4.895662717644754</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J8">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -881,31 +941,31 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="E9">
-        <v>1.247659062906259</v>
+        <v>1.138704584265317</v>
       </c>
       <c r="F9">
-        <v>2.75</v>
+        <v>3.37</v>
       </c>
       <c r="G9">
-        <v>5.037809027721738</v>
+        <v>8.209567047093293</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I9">
         <v>40</v>
       </c>
       <c r="J9">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -916,19 +976,19 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="E10">
-        <v>1.381171348765237</v>
+        <v>1.477791193529223</v>
       </c>
       <c r="F10">
-        <v>2.67</v>
+        <v>3.28</v>
       </c>
       <c r="G10">
-        <v>3.623492041674674</v>
+        <v>3.092964486459998</v>
       </c>
       <c r="H10">
         <v>38</v>
@@ -937,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="J10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -951,31 +1011,31 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="E11">
-        <v>1.994725595086942</v>
+        <v>1.262903173515677</v>
       </c>
       <c r="F11">
-        <v>2.53</v>
+        <v>3.15</v>
       </c>
       <c r="G11">
-        <v>2.005302371768766</v>
+        <v>4.803681738137589</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>40</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -986,31 +1046,31 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="E12">
-        <v>1.50038524347888</v>
+        <v>1.679149045168386</v>
       </c>
       <c r="F12">
-        <v>2.38</v>
+        <v>3.02</v>
       </c>
       <c r="G12">
-        <v>2.998460212470688</v>
+        <v>2.472430841380426</v>
       </c>
       <c r="H12">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1021,28 +1081,28 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="E13">
-        <v>1.619470282502113</v>
+        <v>1.469102954606655</v>
       </c>
       <c r="F13">
-        <v>2.35</v>
+        <v>2.98</v>
       </c>
       <c r="G13">
-        <v>2.614282441380211</v>
+        <v>3.131728206313484</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I13">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
@@ -1050,72 +1110,72 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="E14">
-        <v>1.515966275941181</v>
+        <v>1.842837415197812</v>
       </c>
       <c r="F14">
-        <v>2.42</v>
+        <v>2.96</v>
       </c>
       <c r="G14">
-        <v>2.938111164680069</v>
+        <v>2.186468448087705</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="E15">
-        <v>1.579117016354164</v>
+        <v>1.762570890740361</v>
       </c>
       <c r="F15">
-        <v>2.25</v>
+        <v>2.89</v>
       </c>
       <c r="G15">
-        <v>2.726766735841243</v>
+        <v>2.311353491383766</v>
       </c>
       <c r="H15">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I15">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J15">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1126,31 +1186,31 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="E16">
-        <v>1.588680701613272</v>
+        <v>1.453757797534754</v>
       </c>
       <c r="F16">
-        <v>2.23</v>
+        <v>2.8</v>
       </c>
       <c r="G16">
-        <v>2.698713746279625</v>
+        <v>3.203818877456115</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I16">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J16">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1161,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D17">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="E17">
-        <v>1.866144156724184</v>
+        <v>1.525285766051548</v>
       </c>
       <c r="F17">
-        <v>2.11</v>
+        <v>2.67</v>
       </c>
       <c r="G17">
-        <v>2.154542222835132</v>
+        <v>2.903725675867385</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I17">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J17">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K17" t="s">
         <v>10</v>
@@ -1190,34 +1250,34 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="E18">
-        <v>1.918962488628654</v>
+        <v>1.940471059406421</v>
       </c>
       <c r="F18">
-        <v>2.14</v>
+        <v>2.41</v>
       </c>
       <c r="G18">
-        <v>2.088183698871404</v>
+        <v>2.063296940398305</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J18">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
@@ -1225,37 +1285,37 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="E19">
-        <v>1.702233057126251</v>
+        <v>1.184665409937002</v>
       </c>
       <c r="F19">
-        <v>2.09</v>
+        <v>2.43</v>
       </c>
       <c r="G19">
-        <v>2.424028660929608</v>
+        <v>6.415199307445555</v>
       </c>
       <c r="H19">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I19">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J19">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1266,31 +1326,31 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="E20">
-        <v>1.994049208610507</v>
+        <v>1.405729757841003</v>
       </c>
       <c r="F20">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="G20">
-        <v>2.005986415298103</v>
+        <v>3.464694739969947</v>
       </c>
       <c r="H20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1301,19 +1361,19 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="E21">
-        <v>1.834330535757519</v>
+        <v>1.567042835714952</v>
       </c>
       <c r="F21">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="G21">
-        <v>2.198565744800487</v>
+        <v>2.76353519878116</v>
       </c>
       <c r="H21">
         <v>47</v>
@@ -1322,10 +1382,10 @@
         <v>40</v>
       </c>
       <c r="J21">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1336,31 +1396,31 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D22">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="E22">
-        <v>1.784763272633531</v>
+        <v>1.34843428989331</v>
       </c>
       <c r="F22">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="G22">
-        <v>2.274269623556886</v>
+        <v>3.869981597695789</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J22">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1371,31 +1431,31 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D23">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="E23">
-        <v>1.430902598524012</v>
+        <v>1.904407697474716</v>
       </c>
       <c r="F23">
-        <v>1.86</v>
+        <v>2.27</v>
       </c>
       <c r="G23">
-        <v>3.320710070965782</v>
+        <v>2.105696029337428</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J23">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1406,66 +1466,66 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="E24">
-        <v>1.768038764549601</v>
+        <v>1.452589926332887</v>
       </c>
       <c r="F24">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="G24">
-        <v>2.302017614418756</v>
+        <v>3.209505651401713</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I24">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="E25">
-        <v>1.669750850666229</v>
+        <v>1.513417883289905</v>
       </c>
       <c r="F25">
-        <v>1.81</v>
+        <v>2.19</v>
       </c>
       <c r="G25">
-        <v>2.49309254180903</v>
+        <v>2.947731141720559</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I25">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1476,31 +1536,31 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D26">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="E26">
-        <v>1.880465305641345</v>
+        <v>1.392943727533221</v>
       </c>
       <c r="F26">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="G26">
-        <v>2.135763094346556</v>
+        <v>3.544893657617826</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J26">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1511,136 +1571,486 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D27">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="E27">
-        <v>1.642638192771094</v>
+        <v>1.562019982463285</v>
       </c>
       <c r="F27">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="G27">
-        <v>2.556085541209342</v>
+        <v>2.779296165978096</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I27">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J27">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="E28">
-        <v>1.706585798997733</v>
+        <v>1.922870668026995</v>
       </c>
       <c r="F28">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="G28">
-        <v>2.41525629501536</v>
+        <v>2.083575450651065</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J28">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>2.57</v>
+        <v>1.75</v>
       </c>
       <c r="E29">
-        <v>1.927354766926362</v>
+        <v>1.806980105531606</v>
       </c>
       <c r="F29">
-        <v>1.48</v>
+        <v>2.07</v>
       </c>
       <c r="G29">
-        <v>2.078335967705665</v>
+        <v>2.239187921914432</v>
       </c>
       <c r="H29">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I29">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J29">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>2.83</v>
+        <v>1.8</v>
       </c>
       <c r="E30">
-        <v>1.905999259988858</v>
+        <v>1.991574439467525</v>
       </c>
       <c r="F30">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="G30">
-        <v>2.103753660916124</v>
+        <v>2.008497153816308</v>
       </c>
       <c r="H30">
+        <v>43</v>
+      </c>
+      <c r="I30">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>1.8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>1.82</v>
+      </c>
+      <c r="E31">
+        <v>1.825461126310168</v>
+      </c>
+      <c r="F31">
+        <v>1.91</v>
+      </c>
+      <c r="G31">
+        <v>2.211444086373909</v>
+      </c>
+      <c r="H31">
+        <v>44</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>1.9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32">
+        <v>1.88</v>
+      </c>
+      <c r="E32">
+        <v>1.816885041044018</v>
+      </c>
+      <c r="F32">
+        <v>1.84</v>
+      </c>
+      <c r="G32">
+        <v>2.224162458308641</v>
+      </c>
+      <c r="H32">
+        <v>49</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>1.9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>2.25</v>
+      </c>
+      <c r="E33">
+        <v>1.793189582775474</v>
+      </c>
+      <c r="F33">
+        <v>1.63</v>
+      </c>
+      <c r="G33">
+        <v>2.260732644144</v>
+      </c>
+      <c r="H33">
         <v>51</v>
       </c>
-      <c r="I30">
+      <c r="I33">
         <v>50</v>
       </c>
-      <c r="J30">
-        <v>2.9</v>
-      </c>
-      <c r="K30" t="s">
-        <v>71</v>
+      <c r="J33">
+        <v>2.3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <v>2.26</v>
+      </c>
+      <c r="E34">
+        <v>1.932638039864292</v>
+      </c>
+      <c r="F34">
+        <v>1.59</v>
+      </c>
+      <c r="G34">
+        <v>2.072227334996446</v>
+      </c>
+      <c r="H34">
+        <v>47</v>
+      </c>
+      <c r="I34">
+        <v>40</v>
+      </c>
+      <c r="J34">
+        <v>2.3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>2.41</v>
+      </c>
+      <c r="E35">
+        <v>1.801311592297608</v>
+      </c>
+      <c r="F35">
+        <v>1.56</v>
+      </c>
+      <c r="G35">
+        <v>2.247953991446313</v>
+      </c>
+      <c r="H35">
+        <v>55</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>2.5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36">
+        <v>2.49</v>
+      </c>
+      <c r="E36">
+        <v>1.888390774562037</v>
+      </c>
+      <c r="F36">
+        <v>1.49</v>
+      </c>
+      <c r="G36">
+        <v>2.125630779420222</v>
+      </c>
+      <c r="H36">
+        <v>44</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="J36">
+        <v>2.5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37">
+        <v>2.52</v>
+      </c>
+      <c r="E37">
+        <v>1.948387952984564</v>
+      </c>
+      <c r="F37">
+        <v>1.49</v>
+      </c>
+      <c r="G37">
+        <v>2.054420816769143</v>
+      </c>
+      <c r="H37">
+        <v>41</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>2.6</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <v>2.61</v>
+      </c>
+      <c r="E38">
+        <v>1.961584459009758</v>
+      </c>
+      <c r="F38">
+        <v>1.49</v>
+      </c>
+      <c r="G38">
+        <v>2.039950251514883</v>
+      </c>
+      <c r="H38">
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <v>40</v>
+      </c>
+      <c r="J38">
+        <v>2.7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39">
+        <v>3.21</v>
+      </c>
+      <c r="E39">
+        <v>1.649644881983016</v>
+      </c>
+      <c r="F39">
+        <v>1.31</v>
+      </c>
+      <c r="G39">
+        <v>2.539302513932748</v>
+      </c>
+      <c r="H39">
+        <v>53</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>3.3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>3.22</v>
+      </c>
+      <c r="E40">
+        <v>1.394912727951291</v>
+      </c>
+      <c r="F40">
+        <v>1.32</v>
+      </c>
+      <c r="G40">
+        <v>3.532205039801453</v>
+      </c>
+      <c r="H40">
+        <v>31</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>3.3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Bets_Today.xlsx
+++ b/Bets_Today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="142">
   <si>
     <t>Sex</t>
   </si>
@@ -55,238 +55,388 @@
     <t>Womens</t>
   </si>
   <si>
+    <t>Rinky Hijikata</t>
+  </si>
+  <si>
     <t>Roman Safiullin</t>
   </si>
   <si>
-    <t>Carlos Alcaraz</t>
-  </si>
-  <si>
-    <t>Casper Ruud</t>
-  </si>
-  <si>
-    <t>Juan Manuel Cerundolo</t>
-  </si>
-  <si>
-    <t>Anett Kontaveit</t>
-  </si>
-  <si>
-    <t>Evgeny Donskoy</t>
-  </si>
-  <si>
-    <t>Matteo Berrettini</t>
-  </si>
-  <si>
-    <t>Yibing Wu</t>
-  </si>
-  <si>
-    <t>Yulia Putintseva</t>
-  </si>
-  <si>
-    <t>Constant Lestienne</t>
-  </si>
-  <si>
-    <t>Albert Ramos Vinolas</t>
-  </si>
-  <si>
-    <t>Roberto Bautista Agut</t>
-  </si>
-  <si>
-    <t>Lucia Bronzetti</t>
-  </si>
-  <si>
-    <t>Barbora Krejcikova</t>
-  </si>
-  <si>
-    <t>Aliaksandra Sasnovich</t>
+    <t>Gijs Brouwer</t>
+  </si>
+  <si>
+    <t>Nicolas Alvarez Varona</t>
+  </si>
+  <si>
+    <t>Adrian Mannarino</t>
+  </si>
+  <si>
+    <t>Chun Hsin Tseng</t>
+  </si>
+  <si>
+    <t>Laslo Djere</t>
+  </si>
+  <si>
+    <t>Rebecca Marino</t>
+  </si>
+  <si>
+    <t>Marco Cecchinato</t>
+  </si>
+  <si>
+    <t>Luciano Darderi</t>
+  </si>
+  <si>
+    <t>Lukas Klein</t>
+  </si>
+  <si>
+    <t>Alison Riske</t>
+  </si>
+  <si>
+    <t>Andrea Pellegrino</t>
+  </si>
+  <si>
+    <t>Jenson Brooksby</t>
+  </si>
+  <si>
+    <t>Jiri Lehecka</t>
+  </si>
+  <si>
+    <t>Nicolas Moreno De Alboran</t>
+  </si>
+  <si>
+    <t>Emilio Gomez</t>
+  </si>
+  <si>
+    <t>Vanessa Andreescu Bianca</t>
+  </si>
+  <si>
+    <t>Daniel Evans</t>
+  </si>
+  <si>
+    <t>Mikael Torpegaard</t>
+  </si>
+  <si>
+    <t>Kaia Kanepi</t>
   </si>
   <si>
     <t>Andrey Rublev</t>
   </si>
   <si>
-    <t>Salvatore Caruso</t>
-  </si>
-  <si>
-    <t>Antoine Bellier</t>
-  </si>
-  <si>
-    <t>Francesco Maestrelli</t>
-  </si>
-  <si>
-    <t>Jurij Rodionov</t>
-  </si>
-  <si>
-    <t>Karen Khachanov</t>
-  </si>
-  <si>
-    <t>Tim Van Rijthoven</t>
-  </si>
-  <si>
-    <t>Felipe Meligeni Alves</t>
-  </si>
-  <si>
-    <t>Sung Nam Ji</t>
-  </si>
-  <si>
-    <t>Caroline Garcia</t>
-  </si>
-  <si>
-    <t>Nicolas Jarry</t>
-  </si>
-  <si>
-    <t>Nuria Parrizas Diaz</t>
-  </si>
-  <si>
-    <t>Bernarda Pera</t>
-  </si>
-  <si>
-    <t>Antoine Escoffier</t>
+    <t>Norbert Gombos</t>
+  </si>
+  <si>
+    <t>Victoria Azarenka</t>
+  </si>
+  <si>
+    <t>Max Purcell</t>
+  </si>
+  <si>
+    <t>Ryan Harrison</t>
+  </si>
+  <si>
+    <t>Raul Brancaccio</t>
+  </si>
+  <si>
+    <t>Elise Mertens</t>
+  </si>
+  <si>
+    <t>Vit Kopriva</t>
+  </si>
+  <si>
+    <t>Yshai Oliel</t>
+  </si>
+  <si>
+    <t>Fabian Marozsan</t>
+  </si>
+  <si>
+    <t>Jonas Forejtek</t>
+  </si>
+  <si>
+    <t>Benjamin Bonzi</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova</t>
+  </si>
+  <si>
+    <t>Clara Tauson</t>
+  </si>
+  <si>
+    <t>Lukas Neumayer</t>
+  </si>
+  <si>
+    <t>Camilo Ugo Carabelli</t>
+  </si>
+  <si>
+    <t>Naomi Osaka</t>
+  </si>
+  <si>
+    <t>Lorenzo Giustino</t>
+  </si>
+  <si>
+    <t>Aleksandar Kovacevic</t>
+  </si>
+  <si>
+    <t>Elena Rybakina</t>
+  </si>
+  <si>
+    <t>Madison Keys</t>
+  </si>
+  <si>
+    <t>Peter Gojowczyk</t>
+  </si>
+  <si>
+    <t>Nino Serdarusic</t>
+  </si>
+  <si>
+    <t>David Goffin</t>
+  </si>
+  <si>
+    <t>Quentin Halys</t>
+  </si>
+  <si>
+    <t>Sebastian Ofner</t>
+  </si>
+  <si>
+    <t>Aidan Mchugh</t>
+  </si>
+  <si>
+    <t>Tereza Martincova</t>
+  </si>
+  <si>
+    <t>Andrea Vavassori</t>
+  </si>
+  <si>
+    <t>Emil Ruusuvuori</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya</t>
+  </si>
+  <si>
+    <t>Zhizhen Zhang</t>
+  </si>
+  <si>
+    <t>Ajla Tomljanovic</t>
+  </si>
+  <si>
+    <t>Kayla Day</t>
+  </si>
+  <si>
+    <t>Camila Osorio</t>
+  </si>
+  <si>
+    <t>Ilya Ivashka</t>
+  </si>
+  <si>
+    <t>Nicolas Mejia</t>
+  </si>
+  <si>
+    <t>Ernests Gulbis</t>
+  </si>
+  <si>
+    <t>Strong Kirchheimer</t>
+  </si>
+  <si>
+    <t>Tatiana Maria</t>
+  </si>
+  <si>
+    <t>Andrey Chepelev</t>
+  </si>
+  <si>
+    <t>Denis Yevseyev</t>
+  </si>
+  <si>
+    <t>Evan Zhu</t>
+  </si>
+  <si>
+    <t>Rodrigo Pacheco Mendez</t>
+  </si>
+  <si>
+    <t>Alafia Ayeni</t>
+  </si>
+  <si>
+    <t>Gage Brymer</t>
+  </si>
+  <si>
+    <t>Daniel Siniakov</t>
+  </si>
+  <si>
+    <t>Bradley Klahn</t>
+  </si>
+  <si>
+    <t>Nick Chappell</t>
+  </si>
+  <si>
+    <t>Kimmer Coppejans</t>
+  </si>
+  <si>
+    <t>Venus Williams</t>
   </si>
   <si>
     <t>Joao Domingues</t>
   </si>
   <si>
-    <t>Zhizhen Zhang</t>
-  </si>
-  <si>
-    <t>Elias Ymer</t>
-  </si>
-  <si>
-    <t>Ferreira Silva Frederico</t>
-  </si>
-  <si>
-    <t>Elahi Galan Daniel</t>
-  </si>
-  <si>
-    <t>Dan Added</t>
-  </si>
-  <si>
-    <t>Aidan Mchugh</t>
-  </si>
-  <si>
-    <t>Federico Delbonis</t>
-  </si>
-  <si>
-    <t>Yanki Erel</t>
-  </si>
-  <si>
-    <t>Li Tu</t>
-  </si>
-  <si>
-    <t>Alafia Ayeni</t>
-  </si>
-  <si>
-    <t>Filip Krajinovic</t>
-  </si>
-  <si>
-    <t>Jiri Lehecka</t>
-  </si>
-  <si>
-    <t>Lorenzo Giustino</t>
+    <t>Damir Dzumhur</t>
+  </si>
+  <si>
+    <t>Giovanni Mpetshi Perricard</t>
+  </si>
+  <si>
+    <t>Elizabeth Mandlik</t>
+  </si>
+  <si>
+    <t>Viktor Durasovic</t>
+  </si>
+  <si>
+    <t>Yoshihito Nishioka</t>
+  </si>
+  <si>
+    <t>Nicola Kuhn</t>
+  </si>
+  <si>
+    <t>Giacomo Dambrosi</t>
+  </si>
+  <si>
+    <t>Cannon Kingsley</t>
+  </si>
+  <si>
+    <t>Shelby Rogers</t>
+  </si>
+  <si>
+    <t>Kyle Edmund</t>
+  </si>
+  <si>
+    <t>Kumar Mukund Sasi</t>
+  </si>
+  <si>
+    <t>Greetje Minnen</t>
+  </si>
+  <si>
+    <t>Jack Draper</t>
+  </si>
+  <si>
+    <t>Pedro Sousa</t>
+  </si>
+  <si>
+    <t>Dayana Yastremska</t>
+  </si>
+  <si>
+    <t>Henri Laaksonen</t>
+  </si>
+  <si>
+    <t>Steven Diez</t>
+  </si>
+  <si>
+    <t>Nikola Milojevic</t>
+  </si>
+  <si>
+    <t>Ludmilla Samsonova</t>
+  </si>
+  <si>
+    <t>Duje Ajdukovic</t>
+  </si>
+  <si>
+    <t>Louis Wessels</t>
+  </si>
+  <si>
+    <t>Michael Vrbensky</t>
+  </si>
+  <si>
+    <t>Oriol Roca Batalla</t>
+  </si>
+  <si>
+    <t>Christopher Eubanks</t>
+  </si>
+  <si>
+    <t>Camila Giorgi</t>
   </si>
   <si>
     <t>Andrea Petkovic</t>
   </si>
   <si>
-    <t>David Poljak</t>
-  </si>
-  <si>
-    <t>Richard Gasquet</t>
-  </si>
-  <si>
-    <t>Peter Gojowczyk</t>
-  </si>
-  <si>
-    <t>Diane Parry</t>
-  </si>
-  <si>
-    <t>Thiago Seyboth Wild</t>
-  </si>
-  <si>
-    <t>Dominic Stricker</t>
-  </si>
-  <si>
-    <t>Juan Pablo Varillas</t>
-  </si>
-  <si>
-    <t>Elina Avanesyan</t>
-  </si>
-  <si>
-    <t>Anastasia Potapova</t>
-  </si>
-  <si>
-    <t>Maryna Zanevska</t>
-  </si>
-  <si>
-    <t>Francisco Cerundolo</t>
-  </si>
-  <si>
-    <t>Nerman Fatic</t>
-  </si>
-  <si>
-    <t>Maxime Janvier</t>
-  </si>
-  <si>
-    <t>Fa Rodriguez Taverna Santiago</t>
-  </si>
-  <si>
-    <t>Jelle Sels</t>
-  </si>
-  <si>
-    <t>Fabio Fognini</t>
-  </si>
-  <si>
-    <t>Ben Shelton</t>
+    <t>Otto Virtanen</t>
+  </si>
+  <si>
+    <t>Mattia Bellucci</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng</t>
+  </si>
+  <si>
+    <t>Sumit Nagal</t>
+  </si>
+  <si>
+    <t>Zachary Svajda</t>
+  </si>
+  <si>
+    <t>Darya Kasatkina</t>
+  </si>
+  <si>
+    <t>Shuai Zhang</t>
+  </si>
+  <si>
+    <t>Benoit Paire</t>
+  </si>
+  <si>
+    <t>Stefano Travaglia</t>
+  </si>
+  <si>
+    <t>Jack Sock</t>
+  </si>
+  <si>
+    <t>Ricardas Berankis</t>
+  </si>
+  <si>
+    <t>Tomas Machac</t>
+  </si>
+  <si>
+    <t>Billy Harris</t>
+  </si>
+  <si>
+    <t>Xin Yu Wang</t>
   </si>
   <si>
     <t>Geoffrey Blancaneaux</t>
   </si>
   <si>
-    <t>Benjamin Lock</t>
-  </si>
-  <si>
-    <t>Elisabetta Cocciaretto</t>
-  </si>
-  <si>
-    <t>Yannick Hanfmann</t>
-  </si>
-  <si>
-    <t>Julia Grabher</t>
-  </si>
-  <si>
-    <t>Katerina Siniakova</t>
-  </si>
-  <si>
-    <t>Michael Geerts</t>
-  </si>
-  <si>
-    <t>Harold Mayot</t>
-  </si>
-  <si>
-    <t>Marco Cecchinato</t>
-  </si>
-  <si>
-    <t>Pedro Martinez</t>
-  </si>
-  <si>
-    <t>Nicolas Kicker</t>
-  </si>
-  <si>
-    <t>Aslan Karatsev</t>
-  </si>
-  <si>
-    <t>Gregoire Barrere</t>
-  </si>
-  <si>
-    <t>Max Purcell</t>
-  </si>
-  <si>
-    <t>Dominic Thiem</t>
-  </si>
-  <si>
-    <t>Dmitry Popko</t>
-  </si>
-  <si>
-    <t>Dominik Koepfer</t>
+    <t>Mackenzie Mcdonald</t>
+  </si>
+  <si>
+    <t>Madison Brengle</t>
+  </si>
+  <si>
+    <t>Pavel Kotov</t>
+  </si>
+  <si>
+    <t>Sloane Stephens</t>
+  </si>
+  <si>
+    <t>Caroline Dolehide</t>
+  </si>
+  <si>
+    <t>Sofia Kenin</t>
+  </si>
+  <si>
+    <t>Sebastian Korda</t>
+  </si>
+  <si>
+    <t>Hady Habib</t>
+  </si>
+  <si>
+    <t>Nikolas Sanchez Izquierdo</t>
+  </si>
+  <si>
+    <t>Alberto Olivieri Genaro</t>
+  </si>
+  <si>
+    <t>Xiyu Wang</t>
+  </si>
+  <si>
+    <t>Zdenek Kolar</t>
+  </si>
+  <si>
+    <t>Manuel Guinard</t>
+  </si>
+  <si>
+    <t>Enzo Couacaud</t>
   </si>
   <si>
     <t>Lower</t>
@@ -647,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,25 +846,25 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E2">
-        <v>1.510690859672741</v>
+        <v>1.299775879620985</v>
       </c>
       <c r="F2">
-        <v>7.84</v>
+        <v>9.83</v>
       </c>
       <c r="G2">
-        <v>2.958131775925685</v>
+        <v>4.335825421525996</v>
       </c>
       <c r="H2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>1.1</v>
@@ -731,31 +881,31 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="E3">
-        <v>1.184884267933979</v>
+        <v>1.704975598543875</v>
       </c>
       <c r="F3">
-        <v>4.61</v>
+        <v>5.62</v>
       </c>
       <c r="G3">
-        <v>6.408789028805258</v>
+        <v>2.418488813039058</v>
       </c>
       <c r="H3">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -766,28 +916,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="E4">
-        <v>1.259594361978731</v>
+        <v>1.803992279402397</v>
       </c>
       <c r="F4">
-        <v>4.39</v>
+        <v>5.62</v>
       </c>
       <c r="G4">
-        <v>4.852163784982089</v>
+        <v>2.243793038340237</v>
       </c>
       <c r="H4">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -801,28 +951,28 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="E5">
-        <v>1.33610890665049</v>
+        <v>1.628790611537417</v>
       </c>
       <c r="F5">
-        <v>3.95</v>
+        <v>5.98</v>
       </c>
       <c r="G5">
-        <v>3.975226125262643</v>
+        <v>2.590354534007691</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -830,34 +980,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="E6">
-        <v>1.302788502548803</v>
+        <v>1.134950906004091</v>
       </c>
       <c r="F6">
-        <v>4.08</v>
+        <v>5.87</v>
       </c>
       <c r="G6">
-        <v>4.302635310067039</v>
+        <v>8.410102159445197</v>
       </c>
       <c r="H6">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -871,31 +1021,31 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="E7">
-        <v>1.468128372089623</v>
+        <v>1.139238670708398</v>
       </c>
       <c r="F7">
-        <v>3.58</v>
+        <v>5.15</v>
       </c>
       <c r="G7">
-        <v>3.136166187783529</v>
+        <v>8.181912861652185</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -906,98 +1056,98 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="E8">
-        <v>1.2566957338146</v>
+        <v>1.574698417068719</v>
       </c>
       <c r="F8">
-        <v>3.73</v>
+        <v>4.77</v>
       </c>
       <c r="G8">
-        <v>4.895662717644754</v>
+        <v>2.740043073549002</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D9">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="E9">
-        <v>1.138704584265317</v>
+        <v>1.245723607476186</v>
       </c>
       <c r="F9">
-        <v>3.37</v>
+        <v>4.28</v>
       </c>
       <c r="G9">
-        <v>8.209567047093293</v>
+        <v>5.06961305130974</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>1.3</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="E10">
-        <v>1.477791193529223</v>
+        <v>1.447821853181824</v>
       </c>
       <c r="F10">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="G10">
-        <v>3.092964486459998</v>
+        <v>3.233030819945229</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J10">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1011,31 +1161,31 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D11">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="E11">
-        <v>1.262903173515677</v>
+        <v>1.397411897945207</v>
       </c>
       <c r="F11">
-        <v>3.15</v>
+        <v>3.36</v>
       </c>
       <c r="G11">
-        <v>4.803681738137589</v>
+        <v>3.516280979936527</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I11">
         <v>40</v>
       </c>
       <c r="J11">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1046,28 +1196,28 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D12">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="E12">
-        <v>1.679149045168386</v>
+        <v>1.320774988767183</v>
       </c>
       <c r="F12">
-        <v>3.02</v>
+        <v>3.4</v>
       </c>
       <c r="G12">
-        <v>2.472430841380426</v>
+        <v>4.117450035126636</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -1075,69 +1225,69 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="E13">
-        <v>1.469102954606655</v>
+        <v>1.172943743122894</v>
       </c>
       <c r="F13">
-        <v>2.98</v>
+        <v>3.51</v>
       </c>
       <c r="G13">
-        <v>3.131728206313484</v>
+        <v>6.782227110057411</v>
       </c>
       <c r="H13">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I13">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="E14">
-        <v>1.842837415197812</v>
+        <v>1.534673256959563</v>
       </c>
       <c r="F14">
-        <v>2.96</v>
+        <v>3.34</v>
       </c>
       <c r="G14">
-        <v>2.186468448087705</v>
+        <v>2.870301136223892</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1145,34 +1295,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D15">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="E15">
-        <v>1.762570890740361</v>
+        <v>1.453923946854665</v>
       </c>
       <c r="F15">
-        <v>2.89</v>
+        <v>3.38</v>
       </c>
       <c r="G15">
-        <v>2.311353491383766</v>
+        <v>3.203012215877158</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -1180,34 +1330,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D16">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="E16">
-        <v>1.453757797534754</v>
+        <v>1.356446689715708</v>
       </c>
       <c r="F16">
-        <v>2.8</v>
+        <v>3.17</v>
       </c>
       <c r="G16">
-        <v>3.203818877456115</v>
+        <v>3.805468612424409</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
@@ -1221,28 +1371,28 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D17">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="E17">
-        <v>1.525285766051548</v>
+        <v>1.632888219743044</v>
       </c>
       <c r="F17">
-        <v>2.67</v>
+        <v>2.97</v>
       </c>
       <c r="G17">
-        <v>2.903725675867385</v>
+        <v>2.580057850351528</v>
       </c>
       <c r="H17">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J17">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K17" t="s">
         <v>10</v>
@@ -1256,28 +1406,28 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="E18">
-        <v>1.940471059406421</v>
+        <v>1.80431495924395</v>
       </c>
       <c r="F18">
-        <v>2.41</v>
+        <v>2.84</v>
       </c>
       <c r="G18">
-        <v>2.063296940398305</v>
+        <v>2.243294046078657</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
@@ -1285,37 +1435,37 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D19">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="E19">
-        <v>1.184665409937002</v>
+        <v>1.462153678929007</v>
       </c>
       <c r="F19">
-        <v>2.43</v>
+        <v>3.07</v>
       </c>
       <c r="G19">
-        <v>6.415199307445555</v>
+        <v>3.163782407439438</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1326,31 +1476,31 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D20">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="E20">
-        <v>1.405729757841003</v>
+        <v>1.511844791602783</v>
       </c>
       <c r="F20">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="G20">
-        <v>3.464694739969947</v>
+        <v>2.953717252584743</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1361,28 +1511,28 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D21">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="E21">
-        <v>1.567042835714952</v>
+        <v>1.830523062174172</v>
       </c>
       <c r="F21">
-        <v>2.33</v>
+        <v>2.73</v>
       </c>
       <c r="G21">
-        <v>2.76353519878116</v>
+        <v>2.204060483741613</v>
       </c>
       <c r="H21">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
@@ -1390,37 +1540,37 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="E22">
-        <v>1.34843428989331</v>
+        <v>1.250903735338989</v>
       </c>
       <c r="F22">
-        <v>2.4</v>
+        <v>2.79</v>
       </c>
       <c r="G22">
-        <v>3.869981597695789</v>
+        <v>4.985592317503478</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1431,28 +1581,28 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="E23">
-        <v>1.904407697474716</v>
+        <v>1.572248491609239</v>
       </c>
       <c r="F23">
-        <v>2.27</v>
+        <v>2.84</v>
       </c>
       <c r="G23">
-        <v>2.105696029337428</v>
+        <v>2.747492592226617</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I23">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
@@ -1466,101 +1616,101 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D24">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="E24">
-        <v>1.452589926332887</v>
+        <v>1.405076552178498</v>
       </c>
       <c r="F24">
-        <v>2.27</v>
+        <v>2.64</v>
       </c>
       <c r="G24">
-        <v>3.209505651401713</v>
+        <v>3.468669180237683</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="E25">
-        <v>1.513417883289905</v>
+        <v>1.342052508893952</v>
       </c>
       <c r="F25">
-        <v>2.19</v>
+        <v>2.78</v>
       </c>
       <c r="G25">
-        <v>2.947731141720559</v>
+        <v>3.923527745004885</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="J25">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D26">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="E26">
-        <v>1.392943727533221</v>
+        <v>1.485146215442605</v>
       </c>
       <c r="F26">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="G26">
-        <v>3.544893657617826</v>
+        <v>3.061234259217477</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1571,66 +1721,66 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="E27">
-        <v>1.562019982463285</v>
+        <v>1.628258218598185</v>
       </c>
       <c r="F27">
-        <v>2.15</v>
+        <v>2.43</v>
       </c>
       <c r="G27">
-        <v>2.779296165978096</v>
+        <v>2.591702217969027</v>
       </c>
       <c r="H27">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="I27">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J27">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K27" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D28">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="E28">
-        <v>1.922870668026995</v>
+        <v>1.279203540726623</v>
       </c>
       <c r="F28">
-        <v>2.1</v>
+        <v>2.49</v>
       </c>
       <c r="G28">
-        <v>2.083575450651065</v>
+        <v>4.581616470183414</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="K28" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1641,28 +1791,28 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D29">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="E29">
-        <v>1.806980105531606</v>
+        <v>1.65087934042627</v>
       </c>
       <c r="F29">
-        <v>2.07</v>
+        <v>2.61</v>
       </c>
       <c r="G29">
-        <v>2.239187921914432</v>
+        <v>2.536383071161986</v>
       </c>
       <c r="H29">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I29">
         <v>40</v>
       </c>
       <c r="J29">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
@@ -1676,31 +1826,31 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D30">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E30">
-        <v>1.991574439467525</v>
+        <v>1.347869344864033</v>
       </c>
       <c r="F30">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="G30">
-        <v>2.008497153816308</v>
+        <v>3.874642490820386</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I30">
         <v>40</v>
       </c>
       <c r="J30">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1711,31 +1861,31 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D31">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="E31">
-        <v>1.825461126310168</v>
+        <v>1.439535000242031</v>
       </c>
       <c r="F31">
-        <v>1.91</v>
+        <v>2.37</v>
       </c>
       <c r="G31">
-        <v>2.211444086373909</v>
+        <v>3.27513167199278</v>
       </c>
       <c r="H31">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K31" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1746,31 +1896,31 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D32">
-        <v>1.88</v>
+        <v>1.54</v>
       </c>
       <c r="E32">
-        <v>1.816885041044018</v>
+        <v>1.314835900518766</v>
       </c>
       <c r="F32">
-        <v>1.84</v>
+        <v>2.36</v>
       </c>
       <c r="G32">
-        <v>2.224162458308641</v>
+        <v>4.176257848460947</v>
       </c>
       <c r="H32">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I32">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J32">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1781,31 +1931,31 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>2.25</v>
+        <v>1.56</v>
       </c>
       <c r="E33">
-        <v>1.793189582775474</v>
+        <v>1.582750929854977</v>
       </c>
       <c r="F33">
-        <v>1.63</v>
+        <v>2.29</v>
       </c>
       <c r="G33">
-        <v>2.260732644144</v>
+        <v>2.715998977897572</v>
       </c>
       <c r="H33">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J33">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1816,101 +1966,101 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D34">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="E34">
-        <v>1.932638039864292</v>
+        <v>1.501244855183378</v>
       </c>
       <c r="F34">
-        <v>1.59</v>
+        <v>2.39</v>
       </c>
       <c r="G34">
-        <v>2.072227334996446</v>
+        <v>2.995032945792841</v>
       </c>
       <c r="H34">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I34">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J34">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D35">
-        <v>2.41</v>
+        <v>1.58</v>
       </c>
       <c r="E35">
-        <v>1.801311592297608</v>
+        <v>1.492604233541158</v>
       </c>
       <c r="F35">
-        <v>1.56</v>
+        <v>2.37</v>
       </c>
       <c r="G35">
-        <v>2.247953991446313</v>
+        <v>3.030027214365077</v>
       </c>
       <c r="H35">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I35">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J35">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D36">
-        <v>2.49</v>
+        <v>1.58</v>
       </c>
       <c r="E36">
-        <v>1.888390774562037</v>
+        <v>1.725005742775804</v>
       </c>
       <c r="F36">
-        <v>1.49</v>
+        <v>2.35</v>
       </c>
       <c r="G36">
-        <v>2.125630779420222</v>
+        <v>2.379299419300231</v>
       </c>
       <c r="H36">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I36">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J36">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1921,31 +2071,31 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D37">
-        <v>2.52</v>
+        <v>1.58</v>
       </c>
       <c r="E37">
-        <v>1.948387952984564</v>
+        <v>1.695825938668204</v>
       </c>
       <c r="F37">
-        <v>1.49</v>
+        <v>2.27</v>
       </c>
       <c r="G37">
-        <v>2.054420816769143</v>
+        <v>2.437141021092112</v>
       </c>
       <c r="H37">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I37">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J37">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="K37" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1956,66 +2106,66 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D38">
-        <v>2.61</v>
+        <v>1.58</v>
       </c>
       <c r="E38">
-        <v>1.961584459009758</v>
+        <v>1.56304030826913</v>
       </c>
       <c r="F38">
-        <v>1.49</v>
+        <v>2.27</v>
       </c>
       <c r="G38">
-        <v>2.039950251514883</v>
+        <v>2.776071775525538</v>
       </c>
       <c r="H38">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I38">
         <v>40</v>
       </c>
       <c r="J38">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="K38" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D39">
-        <v>3.21</v>
+        <v>1.58</v>
       </c>
       <c r="E39">
-        <v>1.649644881983016</v>
+        <v>1.469456714005189</v>
       </c>
       <c r="F39">
-        <v>1.31</v>
+        <v>2.37</v>
       </c>
       <c r="G39">
-        <v>2.539302513932748</v>
+        <v>3.130121841199073</v>
       </c>
       <c r="H39">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J39">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="K39" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2026,31 +2176,906 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D40">
-        <v>3.22</v>
+        <v>1.59</v>
       </c>
       <c r="E40">
-        <v>1.394912727951291</v>
+        <v>1.81166832036285</v>
       </c>
       <c r="F40">
+        <v>2.26</v>
+      </c>
+      <c r="G40">
+        <v>2.232030344060932</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40">
+        <v>40</v>
+      </c>
+      <c r="J40">
+        <v>1.6</v>
+      </c>
+      <c r="K40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41">
+        <v>1.59</v>
+      </c>
+      <c r="E41">
+        <v>1.184190243421448</v>
+      </c>
+      <c r="F41">
+        <v>2.26</v>
+      </c>
+      <c r="G41">
+        <v>6.42916921887055</v>
+      </c>
+      <c r="H41">
+        <v>31</v>
+      </c>
+      <c r="I41">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>1.6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42">
+        <v>1.59</v>
+      </c>
+      <c r="E42">
+        <v>1.989663745202827</v>
+      </c>
+      <c r="F42">
+        <v>2.36</v>
+      </c>
+      <c r="G42">
+        <v>2.01044420880049</v>
+      </c>
+      <c r="H42">
+        <v>67</v>
+      </c>
+      <c r="I42">
+        <v>60</v>
+      </c>
+      <c r="J42">
+        <v>1.6</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43">
+        <v>1.6</v>
+      </c>
+      <c r="E43">
+        <v>1.636336121738946</v>
+      </c>
+      <c r="F43">
+        <v>2.32</v>
+      </c>
+      <c r="G43">
+        <v>2.571496518643719</v>
+      </c>
+      <c r="H43">
+        <v>47</v>
+      </c>
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>1.6</v>
+      </c>
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44">
+        <v>1.6</v>
+      </c>
+      <c r="E44">
+        <v>1.43990232325055</v>
+      </c>
+      <c r="F44">
+        <v>2.34</v>
+      </c>
+      <c r="G44">
+        <v>3.27323191341829</v>
+      </c>
+      <c r="H44">
+        <v>44</v>
+      </c>
+      <c r="I44">
+        <v>40</v>
+      </c>
+      <c r="J44">
+        <v>1.6</v>
+      </c>
+      <c r="K44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>1.61</v>
+      </c>
+      <c r="E45">
+        <v>1.546412467178994</v>
+      </c>
+      <c r="F45">
+        <v>2.21</v>
+      </c>
+      <c r="G45">
+        <v>2.830119296440613</v>
+      </c>
+      <c r="H45">
+        <v>57</v>
+      </c>
+      <c r="I45">
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <v>1.7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46">
+        <v>1.63</v>
+      </c>
+      <c r="E46">
+        <v>1.612231183141854</v>
+      </c>
+      <c r="F46">
+        <v>2.28</v>
+      </c>
+      <c r="G46">
+        <v>2.633369922237854</v>
+      </c>
+      <c r="H46">
+        <v>41</v>
+      </c>
+      <c r="I46">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>1.7</v>
+      </c>
+      <c r="K46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47">
+        <v>1.66</v>
+      </c>
+      <c r="E47">
+        <v>1.726877505331825</v>
+      </c>
+      <c r="F47">
+        <v>2.2</v>
+      </c>
+      <c r="G47">
+        <v>2.375747622762783</v>
+      </c>
+      <c r="H47">
+        <v>48</v>
+      </c>
+      <c r="I47">
+        <v>40</v>
+      </c>
+      <c r="J47">
+        <v>1.7</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48">
+        <v>1.66</v>
+      </c>
+      <c r="E48">
+        <v>1.926483009778348</v>
+      </c>
+      <c r="F48">
+        <v>2.12</v>
+      </c>
+      <c r="G48">
+        <v>2.079350608101535</v>
+      </c>
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
+      <c r="J48">
+        <v>1.7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49">
+        <v>1.68</v>
+      </c>
+      <c r="E49">
+        <v>1.525654449115903</v>
+      </c>
+      <c r="F49">
+        <v>2.09</v>
+      </c>
+      <c r="G49">
+        <v>2.902390442394045</v>
+      </c>
+      <c r="H49">
+        <v>34</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <v>1.7</v>
+      </c>
+      <c r="K49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50">
+        <v>1.68</v>
+      </c>
+      <c r="E50">
+        <v>1.986989855335939</v>
+      </c>
+      <c r="F50">
+        <v>2.17</v>
+      </c>
+      <c r="G50">
+        <v>2.013181639703513</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>50</v>
+      </c>
+      <c r="J50">
+        <v>1.7</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51">
+        <v>1.71</v>
+      </c>
+      <c r="E51">
+        <v>1.938970650251304</v>
+      </c>
+      <c r="F51">
+        <v>2.05</v>
+      </c>
+      <c r="G51">
+        <v>2.064996014233631</v>
+      </c>
+      <c r="H51">
+        <v>52</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>1.8</v>
+      </c>
+      <c r="K51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52">
+        <v>1.73</v>
+      </c>
+      <c r="E52">
+        <v>1.809075687658101</v>
+      </c>
+      <c r="F52">
+        <v>2.1</v>
+      </c>
+      <c r="G52">
+        <v>2.235978308648152</v>
+      </c>
+      <c r="H52">
+        <v>62</v>
+      </c>
+      <c r="I52">
+        <v>60</v>
+      </c>
+      <c r="J52">
+        <v>1.8</v>
+      </c>
+      <c r="K52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53">
+        <v>1.78</v>
+      </c>
+      <c r="E53">
+        <v>1.800570139182175</v>
+      </c>
+      <c r="F53">
+        <v>2.02</v>
+      </c>
+      <c r="G53">
+        <v>2.249109791955958</v>
+      </c>
+      <c r="H53">
+        <v>37</v>
+      </c>
+      <c r="I53">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>1.8</v>
+      </c>
+      <c r="K53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54">
+        <v>1.8</v>
+      </c>
+      <c r="E54">
+        <v>1.839638492941448</v>
+      </c>
+      <c r="F54">
+        <v>1.93</v>
+      </c>
+      <c r="G54">
+        <v>2.19098875100017</v>
+      </c>
+      <c r="H54">
+        <v>55</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <v>1.8</v>
+      </c>
+      <c r="K54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>1.81</v>
+      </c>
+      <c r="E55">
+        <v>1.534240941046655</v>
+      </c>
+      <c r="F55">
+        <v>1.99</v>
+      </c>
+      <c r="G55">
+        <v>2.871814612412249</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>1.9</v>
+      </c>
+      <c r="K55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56">
+        <v>1.88</v>
+      </c>
+      <c r="E56">
+        <v>1.411304274268971</v>
+      </c>
+      <c r="F56">
+        <v>1.9</v>
+      </c>
+      <c r="G56">
+        <v>3.431290075400609</v>
+      </c>
+      <c r="H56">
+        <v>23</v>
+      </c>
+      <c r="I56">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>1.9</v>
+      </c>
+      <c r="K56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57">
+        <v>1.92</v>
+      </c>
+      <c r="E57">
+        <v>1.645851021136223</v>
+      </c>
+      <c r="F57">
+        <v>1.87</v>
+      </c>
+      <c r="G57">
+        <v>2.548344691382131</v>
+      </c>
+      <c r="H57">
+        <v>26</v>
+      </c>
+      <c r="I57">
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58">
+        <v>2.02</v>
+      </c>
+      <c r="E58">
+        <v>1.900872732366877</v>
+      </c>
+      <c r="F58">
+        <v>1.79</v>
+      </c>
+      <c r="G58">
+        <v>2.110034707535974</v>
+      </c>
+      <c r="H58">
+        <v>54</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>2.1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59">
+        <v>2.12</v>
+      </c>
+      <c r="E59">
+        <v>1.839391289723695</v>
+      </c>
+      <c r="F59">
+        <v>1.66</v>
+      </c>
+      <c r="G59">
+        <v>2.191339500710298</v>
+      </c>
+      <c r="H59">
+        <v>42</v>
+      </c>
+      <c r="I59">
+        <v>40</v>
+      </c>
+      <c r="J59">
+        <v>2.2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60">
+        <v>2.16</v>
+      </c>
+      <c r="E60">
+        <v>1.632973003449214</v>
+      </c>
+      <c r="F60">
+        <v>1.63</v>
+      </c>
+      <c r="G60">
+        <v>2.57984620916022</v>
+      </c>
+      <c r="H60">
+        <v>40</v>
+      </c>
+      <c r="I60">
+        <v>40</v>
+      </c>
+      <c r="J60">
+        <v>2.2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61">
+        <v>2.2</v>
+      </c>
+      <c r="E61">
+        <v>1.993887077502056</v>
+      </c>
+      <c r="F61">
+        <v>1.6</v>
+      </c>
+      <c r="G61">
+        <v>2.006150520150948</v>
+      </c>
+      <c r="H61">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>40</v>
+      </c>
+      <c r="J61">
+        <v>2.2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62">
+        <v>2.37</v>
+      </c>
+      <c r="E62">
+        <v>1.558848527143186</v>
+      </c>
+      <c r="F62">
+        <v>1.58</v>
+      </c>
+      <c r="G62">
+        <v>2.789393639653959</v>
+      </c>
+      <c r="H62">
+        <v>24</v>
+      </c>
+      <c r="I62">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>2.4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63">
+        <v>2.79</v>
+      </c>
+      <c r="E63">
+        <v>1.803964694572641</v>
+      </c>
+      <c r="F63">
+        <v>1.4</v>
+      </c>
+      <c r="G63">
+        <v>2.243835714118721</v>
+      </c>
+      <c r="H63">
+        <v>57</v>
+      </c>
+      <c r="I63">
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <v>2.8</v>
+      </c>
+      <c r="K63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64">
+        <v>2.99</v>
+      </c>
+      <c r="E64">
+        <v>1.895799063764701</v>
+      </c>
+      <c r="F64">
+        <v>1.35</v>
+      </c>
+      <c r="G64">
+        <v>2.116321773989562</v>
+      </c>
+      <c r="H64">
+        <v>52</v>
+      </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65">
+        <v>3.19</v>
+      </c>
+      <c r="E65">
+        <v>1.919570320488032</v>
+      </c>
+      <c r="F65">
         <v>1.32</v>
       </c>
-      <c r="G40">
-        <v>3.532205039801453</v>
-      </c>
-      <c r="H40">
-        <v>31</v>
-      </c>
-      <c r="I40">
-        <v>30</v>
-      </c>
-      <c r="J40">
-        <v>3.3</v>
-      </c>
-      <c r="K40" t="s">
-        <v>91</v>
+      <c r="G65">
+        <v>2.087464414324815</v>
+      </c>
+      <c r="H65">
+        <v>48</v>
+      </c>
+      <c r="I65">
+        <v>40</v>
+      </c>
+      <c r="J65">
+        <v>3.2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Bets_Today.xlsx
+++ b/Bets_Today.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,28 +541,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dane Sweeny</t>
+          <t>Roman Safiullin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thomas Hann</t>
+          <t>Kumar Mukund Sasi</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.33155827431614</v>
+        <v>1.145126313631526</v>
       </c>
       <c r="F3" t="n">
-        <v>5.75</v>
+        <v>6.32</v>
       </c>
       <c r="G3" t="n">
-        <v>4.016061059138289</v>
+        <v>7.890549170421207</v>
       </c>
       <c r="H3" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I3" t="n">
         <v>40</v>
@@ -579,39 +579,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Simona Halep</t>
+          <t>Dane Sweeny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Anna Kalinskaya</t>
+          <t>Thomas Hann</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.152619087447036</v>
+        <v>1.33155827431614</v>
       </c>
       <c r="F4" t="n">
-        <v>6.55</v>
+        <v>5.75</v>
       </c>
       <c r="G4" t="n">
-        <v>7.55226038058334</v>
+        <v>4.016061059138289</v>
       </c>
       <c r="H4" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -665,33 +665,33 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Roman Safiullin</t>
+          <t>Simona Halep</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kumar Mukund Sasi</t>
+          <t>Anna Kalinskaya</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E6" t="n">
-        <v>1.145126313631526</v>
+        <v>1.152619087447036</v>
       </c>
       <c r="F6" t="n">
-        <v>5.32</v>
+        <v>5.56</v>
       </c>
       <c r="G6" t="n">
-        <v>7.890549170421207</v>
+        <v>7.55226038058334</v>
       </c>
       <c r="H6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="n">
         <v>40</v>
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="E7" t="n">
         <v>1.183908355393165</v>
       </c>
       <c r="F7" t="n">
-        <v>5.45</v>
+        <v>5.24</v>
       </c>
       <c r="G7" t="n">
         <v>6.437490851691709</v>
@@ -880,36 +880,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marco Cecchinato</t>
+          <t>Jessica Pegula</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Joao Domingues</t>
+          <t>Daria Saville</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="E11" t="n">
-        <v>1.447106972339357</v>
+        <v>1.273697879086802</v>
       </c>
       <c r="F11" t="n">
-        <v>3.71</v>
+        <v>4.06</v>
       </c>
       <c r="G11" t="n">
-        <v>3.236601220436782</v>
+        <v>4.653663679589039</v>
       </c>
       <c r="H11" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I11" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J11" t="n">
         <v>1.3</v>
@@ -928,31 +928,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Calum Puttergill</t>
+          <t>Marco Cecchinato</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Zaharije Zak Talic</t>
+          <t>Joao Domingues</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="E12" t="n">
-        <v>1.851415898299569</v>
+        <v>1.447106972339357</v>
       </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="G12" t="n">
-        <v>2.17451412640659</v>
+        <v>3.236601220436782</v>
       </c>
       <c r="H12" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J12" t="n">
         <v>1.3</v>
@@ -971,31 +971,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Radu Albot</t>
+          <t>Calum Puttergill</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
+          <t>Zaharije Zak Talic</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="E13" t="n">
-        <v>1.294736429109088</v>
+        <v>1.851415898299569</v>
       </c>
       <c r="F13" t="n">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.392861897060848</v>
+        <v>2.17451412640659</v>
       </c>
       <c r="H13" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J13" t="n">
         <v>1.3</v>
@@ -1072,16 +1072,16 @@
         <v>1.681212534775806</v>
       </c>
       <c r="F15" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="G15" t="n">
         <v>2.467970639044553</v>
       </c>
       <c r="H15" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J15" t="n">
         <v>1.3</v>
@@ -1100,31 +1100,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alex De Minaur</t>
+          <t>Radu Albot</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yoshihito Nishioka</t>
+          <t>Feliciano Lopez</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="E16" t="n">
-        <v>1.363072245351531</v>
+        <v>1.294736429109088</v>
       </c>
       <c r="F16" t="n">
-        <v>3.76</v>
+        <v>3.83</v>
       </c>
       <c r="G16" t="n">
-        <v>3.754272772989815</v>
+        <v>4.392861897060848</v>
       </c>
       <c r="H16" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J16" t="n">
         <v>1.3</v>
@@ -1164,7 +1164,7 @@
         <v>3.520220989494018</v>
       </c>
       <c r="H17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" t="n">
         <v>40</v>
@@ -1181,79 +1181,79 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jessica Pegula</t>
+          <t>Botic Van De Zandschulp</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Daria Saville</t>
+          <t>Borna Gojo</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="E18" t="n">
-        <v>1.273697879086802</v>
+        <v>1.22189191270714</v>
       </c>
       <c r="F18" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
       <c r="G18" t="n">
-        <v>4.653663679589039</v>
+        <v>5.50669872461657</v>
       </c>
       <c r="H18" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J18" t="n">
         <v>1.3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Botic Van De Zandschulp</t>
+          <t>Darya Kasatkina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Borna Gojo</t>
+          <t>Taylor Townsend</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>1.28</v>
       </c>
       <c r="E19" t="n">
-        <v>1.22189191270714</v>
+        <v>1.142099768613643</v>
       </c>
       <c r="F19" t="n">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
-        <v>5.50669872461657</v>
+        <v>8.03730913678622</v>
       </c>
       <c r="H19" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I19" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J19" t="n">
         <v>1.3</v>
@@ -1267,43 +1267,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Darya Kasatkina</t>
+          <t>Norbert Gombos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Taylor Townsend</t>
+          <t>Oriol Roca Batalla</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="E20" t="n">
-        <v>1.142099768613643</v>
+        <v>1.419161403995594</v>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="G20" t="n">
-        <v>8.03730913678622</v>
+        <v>3.385715837545272</v>
       </c>
       <c r="H20" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J20" t="n">
         <v>1.3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -1315,31 +1315,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Norbert Gombos</t>
+          <t>Enzo Couacaud</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Oriol Roca Batalla</t>
+          <t>Keegan Smith</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>1.29</v>
       </c>
       <c r="E21" t="n">
-        <v>1.419161403995594</v>
+        <v>1.459335719616059</v>
       </c>
       <c r="F21" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="G21" t="n">
-        <v>3.385715837545272</v>
+        <v>3.177056904775145</v>
       </c>
       <c r="H21" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J21" t="n">
         <v>1.3</v>
@@ -1358,38 +1358,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Enzo Couacaud</t>
+          <t>Jason Kubler</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Keegan Smith</t>
+          <t>Tomas Martin Etcheverry</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="E22" t="n">
-        <v>1.459335719616059</v>
+        <v>1.290148484986606</v>
       </c>
       <c r="F22" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="G22" t="n">
-        <v>3.177056904775145</v>
+        <v>4.446511189076737</v>
       </c>
       <c r="H22" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J22" t="n">
         <v>1.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -1401,31 +1401,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jason Kubler</t>
+          <t>Karen Khachanov</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tomas Martin Etcheverry</t>
+          <t>Dominik Koepfer</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="E23" t="n">
-        <v>1.290148484986606</v>
+        <v>1.300884147944676</v>
       </c>
       <c r="F23" t="n">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="G23" t="n">
-        <v>4.446511189076737</v>
+        <v>4.323538334707718</v>
       </c>
       <c r="H23" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J23" t="n">
         <v>1.4</v>
@@ -1439,43 +1439,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Holger Rune</t>
+          <t>Vanessa Andreescu Bianca</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Benoit Paire</t>
+          <t>Shelby Rogers</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E24" t="n">
-        <v>1.212413900394629</v>
+        <v>1.461741971250642</v>
       </c>
       <c r="F24" t="n">
-        <v>3.34</v>
+        <v>3.19</v>
       </c>
       <c r="G24" t="n">
-        <v>5.707789829865992</v>
+        <v>3.165711722699736</v>
       </c>
       <c r="H24" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I24" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J24" t="n">
         <v>1.4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -1487,31 +1487,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
+          <t>Holger Rune</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dominik Koepfer</t>
+          <t>Benoit Paire</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="E25" t="n">
-        <v>1.300884147944676</v>
+        <v>1.212413900394629</v>
       </c>
       <c r="F25" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="G25" t="n">
-        <v>4.323538334707718</v>
+        <v>5.707789829865992</v>
       </c>
       <c r="H25" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I25" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J25" t="n">
         <v>1.4</v>
@@ -1525,33 +1525,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vanessa Andreescu Bianca</t>
+          <t>Alex De Minaur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Shelby Rogers</t>
+          <t>Yoshihito Nishioka</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="E26" t="n">
-        <v>1.461741971250642</v>
+        <v>1.363072245351531</v>
       </c>
       <c r="F26" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.165711722699736</v>
+        <v>3.754272772989815</v>
       </c>
       <c r="H26" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I26" t="n">
         <v>40</v>
@@ -1561,43 +1561,43 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amanda Anisimova</t>
+          <t>Raul Brancaccio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Karolina Pliskova</t>
+          <t>Nikola Milojevic</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="E27" t="n">
-        <v>1.376399942665045</v>
+        <v>1.278991074421069</v>
       </c>
       <c r="F27" t="n">
-        <v>3.01</v>
+        <v>2.73</v>
       </c>
       <c r="G27" t="n">
-        <v>3.656748544964289</v>
+        <v>4.584344058587131</v>
       </c>
       <c r="H27" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J27" t="n">
         <v>1.4</v>
@@ -1616,71 +1616,71 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Grigor Dimitrov</t>
+          <t>Thanasi Kokkinakis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Adrian Mannarino</t>
+          <t>Fernando Verdasco</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="E28" t="n">
-        <v>1.376515291492427</v>
+        <v>1.420277859467641</v>
       </c>
       <c r="F28" t="n">
-        <v>2.97</v>
+        <v>2.87</v>
       </c>
       <c r="G28" t="n">
-        <v>3.655934626283603</v>
+        <v>3.379378255296823</v>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J28" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Amanda Anisimova</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Juncheng Shang</t>
+          <t>Karolina Pliskova</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="E29" t="n">
-        <v>1.969643263558874</v>
+        <v>1.376399942665045</v>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="G29" t="n">
-        <v>2.031307118382597</v>
+        <v>3.656748544964289</v>
       </c>
       <c r="H29" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I29" t="n">
         <v>40</v>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -1702,31 +1702,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Thanasi Kokkinakis</t>
+          <t>Cedrik Marcel Stebe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fernando Verdasco</t>
+          <t>Nicolas Alvarez Varona</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="E30" t="n">
-        <v>1.420277859467641</v>
+        <v>1.597716776155275</v>
       </c>
       <c r="F30" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="G30" t="n">
-        <v>3.379378255296823</v>
+        <v>2.673033182090609</v>
       </c>
       <c r="H30" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I30" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
         <v>1.5</v>
@@ -1745,31 +1745,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cedrik Marcel Stebe</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nicolas Alvarez Varona</t>
+          <t>Jeffrey John Wolf</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="E31" t="n">
-        <v>1.597716776155275</v>
+        <v>1.876617648314901</v>
       </c>
       <c r="F31" t="n">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="G31" t="n">
-        <v>2.673033182090609</v>
+        <v>2.140748194976765</v>
       </c>
       <c r="H31" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J31" t="n">
         <v>1.5</v>
@@ -1788,74 +1788,74 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nicolas Moreno De Alboran</t>
+          <t>Hubert Hurkacz</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gianmarco Ferrari</t>
+          <t>Emil Ruusuvuori</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E32" t="n">
-        <v>1.58659296637232</v>
+        <v>1.348919746224086</v>
       </c>
       <c r="F32" t="n">
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="G32" t="n">
-        <v>2.704759615827519</v>
+        <v>3.865988557029877</v>
       </c>
       <c r="H32" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J32" t="n">
         <v>1.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Raul Brancaccio</t>
+          <t>Beatriz Haddad Maia</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nikola Milojevic</t>
+          <t>Claire Liu</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="E33" t="n">
-        <v>1.278991074421069</v>
+        <v>1.323205886720317</v>
       </c>
       <c r="F33" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>4.584344058587131</v>
+        <v>4.094003052194839</v>
       </c>
       <c r="H33" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J33" t="n">
         <v>1.5</v>
@@ -1874,38 +1874,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hubert Hurkacz</t>
+          <t>Mikhail Kukushkin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Emil Ruusuvuori</t>
+          <t>Juncheng Shang</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1.348919746224086</v>
+        <v>1.969643263558874</v>
       </c>
       <c r="F34" t="n">
-        <v>2.66</v>
+        <v>2.47</v>
       </c>
       <c r="G34" t="n">
-        <v>3.865988557029877</v>
+        <v>2.031307118382597</v>
       </c>
       <c r="H34" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I34" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J34" t="n">
         <v>1.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -1917,34 +1917,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kaia Kanepi</t>
+          <t>Naomi Osaka</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lin Zhu</t>
+          <t>Qinwen Zheng</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="E35" t="n">
-        <v>1.331750786157946</v>
+        <v>1.469414911330543</v>
       </c>
       <c r="F35" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="G35" t="n">
-        <v>4.014310867447056</v>
+        <v>3.130311534342888</v>
       </c>
       <c r="H35" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1955,86 +1955,86 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Beatriz Haddad Maia</t>
+          <t>Nicolas Moreno De Alboran</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Claire Liu</t>
+          <t>Gianmarco Ferrari</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="E36" t="n">
-        <v>1.323205886720317</v>
+        <v>1.58659296637232</v>
       </c>
       <c r="F36" t="n">
-        <v>2.58</v>
+        <v>2.33</v>
       </c>
       <c r="G36" t="n">
-        <v>4.094003052194839</v>
+        <v>2.704759615827519</v>
       </c>
       <c r="H36" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I36" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Naomi Osaka</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Qinwen Zheng</t>
+          <t>Yannick Hanfmann</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="E37" t="n">
-        <v>1.469414911330543</v>
+        <v>1.994594670067651</v>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G37" t="n">
-        <v>3.130311534342888</v>
+        <v>2.005434706313057</v>
       </c>
       <c r="H37" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J37" t="n">
         <v>1.6</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -2046,38 +2046,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jordan Thompson</t>
+          <t>Grigor Dimitrov</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yannick Hanfmann</t>
+          <t>Adrian Mannarino</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="E38" t="n">
-        <v>1.994594670067651</v>
+        <v>1.376515291492427</v>
       </c>
       <c r="F38" t="n">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="G38" t="n">
-        <v>2.005434706313057</v>
+        <v>3.655934626283603</v>
       </c>
       <c r="H38" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J38" t="n">
         <v>1.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -2089,31 +2089,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Maxime Cressy</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jeffrey John Wolf</t>
+          <t>Jack Sock</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="E39" t="n">
-        <v>1.876617648314901</v>
+        <v>1.978051223617346</v>
       </c>
       <c r="F39" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G39" t="n">
-        <v>2.140748194976765</v>
+        <v>2.022441336253817</v>
       </c>
       <c r="H39" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J39" t="n">
         <v>1.6</v>
@@ -2132,38 +2132,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aslan Karatsev</t>
+          <t>Camilo Ugo Carabelli</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mikael Ymer</t>
+          <t>Mattia Bellucci</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="E40" t="n">
-        <v>1.829162800286223</v>
+        <v>1.562715489112686</v>
       </c>
       <c r="F40" t="n">
-        <v>2.34</v>
+        <v>2.17</v>
       </c>
       <c r="G40" t="n">
-        <v>2.20603577446408</v>
+        <v>2.777096986572811</v>
       </c>
       <c r="H40" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J40" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -2175,31 +2175,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Matteo Arnaldi</t>
+          <t>Nuno Borges</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Andrea Collarini</t>
+          <t>Fabian Marozsan</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="E41" t="n">
-        <v>1.728010264538185</v>
+        <v>1.962422555604119</v>
       </c>
       <c r="F41" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>2.373607006261584</v>
+        <v>2.039044642269729</v>
       </c>
       <c r="H41" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J41" t="n">
         <v>1.7</v>
@@ -2218,38 +2218,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Camilo Ugo Carabelli</t>
+          <t>Matteo Arnaldi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mattia Bellucci</t>
+          <t>Andrea Collarini</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="E42" t="n">
-        <v>1.562715489112686</v>
+        <v>1.728010264538185</v>
       </c>
       <c r="F42" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="G42" t="n">
-        <v>2.777096986572811</v>
+        <v>2.373607006261584</v>
       </c>
       <c r="H42" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J42" t="n">
         <v>1.7</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2270,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="E43" t="n">
         <v>1.54976485225031</v>
       </c>
       <c r="F43" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G43" t="n">
         <v>2.818959498605228</v>
       </c>
       <c r="H43" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J43" t="n">
         <v>1.7</v>
@@ -2304,34 +2304,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nuno Borges</t>
+          <t>Aslan Karatsev</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fabian Marozsan</t>
+          <t>Mikael Ymer</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="E44" t="n">
-        <v>1.962422555604119</v>
+        <v>1.829162800286223</v>
       </c>
       <c r="F44" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="G44" t="n">
-        <v>2.039044642269729</v>
+        <v>2.20603577446408</v>
       </c>
       <c r="H44" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J44" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2385,43 +2385,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Maxime Cressy</t>
+          <t>Andrea Petkovic</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Jack Sock</t>
+          <t>Rebecca Marino</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="E46" t="n">
-        <v>1.978051223617346</v>
+        <v>1.722503913433882</v>
       </c>
       <c r="F46" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="G46" t="n">
-        <v>2.022441336253817</v>
+        <v>2.384075548113294</v>
       </c>
       <c r="H46" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J46" t="n">
         <v>1.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -2433,77 +2433,77 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vitaliy Sachko</t>
+          <t>Facundo Bagnis</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Giovanni Mpetshi Perricard</t>
+          <t>Ernesto Escobedo</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="E47" t="n">
-        <v>1.875750716993539</v>
+        <v>1.263001651284177</v>
       </c>
       <c r="F47" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="G47" t="n">
-        <v>2.141877455074214</v>
+        <v>4.802257495788449</v>
       </c>
       <c r="H47" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I47" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J47" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Andrea Petkovic</t>
+          <t>Vitaliy Sachko</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rebecca Marino</t>
+          <t>Giovanni Mpetshi Perricard</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="E48" t="n">
-        <v>1.722503913433882</v>
+        <v>1.875750716993539</v>
       </c>
       <c r="F48" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="G48" t="n">
-        <v>2.384075548113294</v>
+        <v>2.141877455074214</v>
       </c>
       <c r="H48" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I48" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2519,34 +2519,34 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Facundo Bagnis</t>
+          <t>Nicolas Mejia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ernesto Escobedo</t>
+          <t>Hady Habib</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="E49" t="n">
-        <v>1.263001651284177</v>
+        <v>1.84352382312103</v>
       </c>
       <c r="F49" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="G49" t="n">
-        <v>4.802257495788449</v>
+        <v>2.185502972873973</v>
       </c>
       <c r="H49" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I49" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2562,34 +2562,34 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nicolas Mejia</t>
+          <t>Ernests Gulbis</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hady Habib</t>
+          <t>Nikolas Sanchez Izquierdo</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="E50" t="n">
-        <v>1.84352382312103</v>
+        <v>1.632738647438726</v>
       </c>
       <c r="F50" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="G50" t="n">
-        <v>2.185502972873973</v>
+        <v>2.580431358267616</v>
       </c>
       <c r="H50" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I50" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J50" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2605,79 +2605,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ernests Gulbis</t>
+          <t>Sebastian Baez</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nikolas Sanchez Izquierdo</t>
+          <t>Sebastian Korda</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="E51" t="n">
-        <v>1.632738647438726</v>
+        <v>1.924665928637647</v>
       </c>
       <c r="F51" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="G51" t="n">
-        <v>2.580431358267616</v>
+        <v>2.081471663472391</v>
       </c>
       <c r="H51" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="K51" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Sebastian Baez</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Sebastian Korda</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.924665928637647</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.081471663472391</v>
-      </c>
-      <c r="H52" t="n">
-        <v>55</v>
-      </c>
-      <c r="I52" t="n">
-        <v>50</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>

--- a/Bets_Today.xlsx
+++ b/Bets_Today.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,31 +498,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brandon Nakashima</t>
+          <t>Felix Auger Aliassime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kaichi Uchida</t>
+          <t>Alejandro Hernandez Serrano Juan</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="E2" t="n">
-        <v>1.397538276262577</v>
+        <v>1.088387376413795</v>
       </c>
       <c r="F2" t="n">
-        <v>7.95</v>
+        <v>17.39</v>
       </c>
       <c r="G2" t="n">
-        <v>3.515481048520453</v>
+        <v>12.31383281836981</v>
       </c>
       <c r="H2" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
         <v>1.1</v>
@@ -541,31 +541,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roman Safiullin</t>
+          <t>Daniil Medvedev</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kumar Mukund Sasi</t>
+          <t>Rinky Hijikata</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="E3" t="n">
-        <v>1.145126313631526</v>
+        <v>1.094669051411177</v>
       </c>
       <c r="F3" t="n">
-        <v>6.32</v>
+        <v>11.46</v>
       </c>
       <c r="G3" t="n">
-        <v>7.890549170421207</v>
+        <v>11.56311418667002</v>
       </c>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
@@ -584,31 +584,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dane Sweeny</t>
+          <t>Dayne Kelly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thomas Hann</t>
+          <t>Matthew Burton</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="E4" t="n">
-        <v>1.33155827431614</v>
+        <v>1.26605494199687</v>
       </c>
       <c r="F4" t="n">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>4.016061059138289</v>
+        <v>4.75862215711732</v>
       </c>
       <c r="H4" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -627,34 +627,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Steve Johnson</t>
+          <t>Dane Sweeny</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gonzalo Villanueva</t>
+          <t>Sam Edgar</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="E5" t="n">
-        <v>1.352254089638216</v>
+        <v>1.440211809065735</v>
       </c>
       <c r="F5" t="n">
-        <v>6.53</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>3.838859872505823</v>
+        <v>3.271633744043141</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -665,39 +665,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Simona Halep</t>
+          <t>Cameron Norrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Anna Kalinskaya</t>
+          <t>Chun Hsin Tseng</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.152619087447036</v>
+        <v>1.292823675685073</v>
       </c>
       <c r="F6" t="n">
-        <v>5.56</v>
+        <v>7.06</v>
       </c>
       <c r="G6" t="n">
-        <v>7.55226038058334</v>
+        <v>4.415024409008114</v>
       </c>
       <c r="H6" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -708,36 +708,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Taylor Fritz</t>
+          <t>Amy Stevens</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alexei Popyrin</t>
+          <t>Milan Krish</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="E7" t="n">
-        <v>1.183908355393165</v>
+        <v>1.21730729551548</v>
       </c>
       <c r="F7" t="n">
-        <v>5.24</v>
+        <v>5.5</v>
       </c>
       <c r="G7" t="n">
-        <v>6.437490851691709</v>
+        <v>5.601778314105264</v>
       </c>
       <c r="H7" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
         <v>1.2</v>
@@ -751,33 +751,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Aryna Sabalenka</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Millen Hurrion</t>
+          <t>Caroline Dolehide</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="E8" t="n">
-        <v>1.343639779543335</v>
+        <v>1.181213777196327</v>
       </c>
       <c r="F8" t="n">
-        <v>4.37</v>
+        <v>6.28</v>
       </c>
       <c r="G8" t="n">
-        <v>3.910023983046745</v>
+        <v>6.518344220133987</v>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
         <v>30</v>
@@ -794,36 +794,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emma Raducanu</t>
+          <t>Jiri Lehecka</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Louisa Chirico</t>
+          <t>Sumit Nagal</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E9" t="n">
-        <v>1.428696011569223</v>
+        <v>1.286983266761605</v>
       </c>
       <c r="F9" t="n">
-        <v>4.48</v>
+        <v>4.63</v>
       </c>
       <c r="G9" t="n">
-        <v>3.332655245239031</v>
+        <v>4.484523719045583</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J9" t="n">
         <v>1.2</v>
@@ -842,74 +842,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cori Gauff</t>
+          <t>Paula Badosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anhelina Kalinina</t>
+          <t>Elizabeth Mandlik</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="E10" t="n">
-        <v>1.454766158835958</v>
+        <v>1.126984210391089</v>
       </c>
       <c r="F10" t="n">
-        <v>4.07</v>
+        <v>4.92</v>
       </c>
       <c r="G10" t="n">
-        <v>3.198932309650412</v>
+        <v>8.874994827468544</v>
       </c>
       <c r="H10" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jessica Pegula</t>
+          <t>Vit Kopriva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Daria Saville</t>
+          <t>Andrew Paulson</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="E11" t="n">
-        <v>1.273697879086802</v>
+        <v>1.336888656868982</v>
       </c>
       <c r="F11" t="n">
-        <v>4.06</v>
+        <v>3.94</v>
       </c>
       <c r="G11" t="n">
-        <v>4.653663679589039</v>
+        <v>3.968339775206219</v>
       </c>
       <c r="H11" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
         <v>1.3</v>
@@ -928,31 +928,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marco Cecchinato</t>
+          <t>Brandon Nakashima</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Joao Domingues</t>
+          <t>Max Purcell</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>1.24</v>
       </c>
       <c r="E12" t="n">
-        <v>1.447106972339357</v>
+        <v>1.542781746727497</v>
       </c>
       <c r="F12" t="n">
-        <v>3.79</v>
+        <v>4.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.236601220436782</v>
+        <v>2.842361144288901</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I12" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J12" t="n">
         <v>1.3</v>
@@ -971,28 +971,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Calum Puttergill</t>
+          <t>Tomas Machac</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Zaharije Zak Talic</t>
+          <t>Yshai Oliel</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1.25</v>
       </c>
       <c r="E13" t="n">
-        <v>1.851415898299569</v>
+        <v>1.364671289926567</v>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
       <c r="G13" t="n">
-        <v>2.17451412640659</v>
+        <v>3.742195581674029</v>
       </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I13" t="n">
         <v>30</v>
@@ -1014,77 +1014,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nick Kyrgios</t>
+          <t>Andrea Vavassori</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Marcos Giron</t>
+          <t>Joao Domingues</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="E14" t="n">
-        <v>1.11026196487412</v>
+        <v>1.646151458850809</v>
       </c>
       <c r="F14" t="n">
-        <v>3.82</v>
+        <v>3.71</v>
       </c>
       <c r="G14" t="n">
-        <v>10.06931053824086</v>
+        <v>2.547624765528682</v>
       </c>
       <c r="H14" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
         <v>1.3</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Laslo Djere</t>
+          <t>Emma Raducanu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Andrea Pellegrino</t>
+          <t>Camila Osorio</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="E15" t="n">
-        <v>1.681212534775806</v>
+        <v>1.812893675048077</v>
       </c>
       <c r="F15" t="n">
-        <v>3.62</v>
+        <v>3.27</v>
       </c>
       <c r="G15" t="n">
-        <v>2.467970639044553</v>
+        <v>2.230173183400471</v>
       </c>
       <c r="H15" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I15" t="n">
         <v>40</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1100,38 +1100,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Radu Albot</t>
+          <t>Zhizhen Zhang</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
+          <t>Nikola Milojevic</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="E16" t="n">
-        <v>1.294736429109088</v>
+        <v>1.21764386504018</v>
       </c>
       <c r="F16" t="n">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>4.392861897060848</v>
+        <v>5.594662017306982</v>
       </c>
       <c r="H16" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="n">
         <v>40</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -1143,34 +1143,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Luciano Darderi</t>
+          <t>Corey Gaal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Damir Dzumhur</t>
+          <t>Sam Oster</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="E17" t="n">
-        <v>1.396790600573789</v>
+        <v>1.715953251076442</v>
       </c>
       <c r="F17" t="n">
-        <v>3.46</v>
+        <v>2.95</v>
       </c>
       <c r="G17" t="n">
-        <v>3.520220989494018</v>
+        <v>2.396739240301641</v>
       </c>
       <c r="H17" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1186,77 +1186,77 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Botic Van De Zandschulp</t>
+          <t>Frances Tiafoe</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Borna Gojo</t>
+          <t>Christopher Eubanks</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="E18" t="n">
-        <v>1.22189191270714</v>
+        <v>1.638763078921273</v>
       </c>
       <c r="F18" t="n">
-        <v>3.67</v>
+        <v>3.12</v>
       </c>
       <c r="G18" t="n">
-        <v>5.50669872461657</v>
+        <v>2.565525674540826</v>
       </c>
       <c r="H18" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Darya Kasatkina</t>
+          <t>Taylor Fritz</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Taylor Townsend</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="E19" t="n">
-        <v>1.142099768613643</v>
+        <v>1.30971742761612</v>
       </c>
       <c r="F19" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
       <c r="G19" t="n">
-        <v>8.03730913678622</v>
+        <v>4.228749533718368</v>
       </c>
       <c r="H19" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I19" t="n">
         <v>60</v>
       </c>
       <c r="J19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1272,34 +1272,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Norbert Gombos</t>
+          <t>Gijs Brouwer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oriol Roca Batalla</t>
+          <t>Roberto Quiroz</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="E20" t="n">
-        <v>1.419161403995594</v>
+        <v>1.600167876060333</v>
       </c>
       <c r="F20" t="n">
-        <v>3.41</v>
+        <v>2.87</v>
       </c>
       <c r="G20" t="n">
-        <v>3.385715837545272</v>
+        <v>2.666200474714299</v>
       </c>
       <c r="H20" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1310,43 +1310,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Enzo Couacaud</t>
+          <t>Veronika Kudermetova</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Keegan Smith</t>
+          <t>Claire Liu</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="E21" t="n">
-        <v>1.459335719616059</v>
+        <v>1.344782169687554</v>
       </c>
       <c r="F21" t="n">
-        <v>3.41</v>
+        <v>3.03</v>
       </c>
       <c r="G21" t="n">
-        <v>3.177056904775145</v>
+        <v>3.90038200324052</v>
       </c>
       <c r="H21" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I21" t="n">
         <v>40</v>
       </c>
       <c r="J21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -1358,38 +1358,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jason Kubler</t>
+          <t>Emil Ruusuvuori</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tomas Martin Etcheverry</t>
+          <t>Mikael Ymer</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="E22" t="n">
-        <v>1.290148484986606</v>
+        <v>1.506228430744575</v>
       </c>
       <c r="F22" t="n">
-        <v>3.39</v>
+        <v>2.99</v>
       </c>
       <c r="G22" t="n">
-        <v>4.446511189076737</v>
+        <v>2.97539280543602</v>
       </c>
       <c r="H22" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="n">
         <v>1.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -1401,31 +1401,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
+          <t>Nick Kyrgios</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dominik Koepfer</t>
+          <t>Tommy Paul</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="E23" t="n">
-        <v>1.300884147944676</v>
+        <v>1.307488779486617</v>
       </c>
       <c r="F23" t="n">
-        <v>3.26</v>
+        <v>2.95</v>
       </c>
       <c r="G23" t="n">
-        <v>4.323538334707718</v>
+        <v>4.252151189612834</v>
       </c>
       <c r="H23" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I23" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J23" t="n">
         <v>1.4</v>
@@ -1439,43 +1439,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vanessa Andreescu Bianca</t>
+          <t>Nick Kyrgios</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Shelby Rogers</t>
+          <t>Reilly Opelka</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="E24" t="n">
-        <v>1.461741971250642</v>
+        <v>1.196822692236178</v>
       </c>
       <c r="F24" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>3.165711722699736</v>
+        <v>6.080714975690149</v>
       </c>
       <c r="H24" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
         <v>1.4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -1487,34 +1487,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Holger Rune</t>
+          <t>Miomir Kecmanovic</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Benoit Paire</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="E25" t="n">
-        <v>1.212413900394629</v>
+        <v>1.378961878850423</v>
       </c>
       <c r="F25" t="n">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="G25" t="n">
-        <v>5.707789829865992</v>
+        <v>3.638787845979364</v>
       </c>
       <c r="H25" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alex De Minaur</t>
+          <t>Karen Khachanov</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1539,16 +1539,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="E26" t="n">
-        <v>1.363072245351531</v>
+        <v>1.444782298566176</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="G26" t="n">
-        <v>3.754272772989815</v>
+        <v>3.248290912708651</v>
       </c>
       <c r="H26" t="n">
         <v>49</v>
@@ -1557,11 +1557,11 @@
         <v>40</v>
       </c>
       <c r="J26" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -1573,38 +1573,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Raul Brancaccio</t>
+          <t>Aleksandar Kovacevic</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nikola Milojevic</t>
+          <t>Billy Harris</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="E27" t="n">
-        <v>1.278991074421069</v>
+        <v>1.456417597246433</v>
       </c>
       <c r="F27" t="n">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="G27" t="n">
-        <v>4.584344058587131</v>
+        <v>3.190975996615817</v>
       </c>
       <c r="H27" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -1616,31 +1616,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Thanasi Kokkinakis</t>
+          <t>Reilly Opelka</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fernando Verdasco</t>
+          <t>Denis Kudla</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="E28" t="n">
-        <v>1.420277859467641</v>
+        <v>1.703755158142403</v>
       </c>
       <c r="F28" t="n">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="G28" t="n">
-        <v>3.379378255296823</v>
+        <v>2.420948732567091</v>
       </c>
       <c r="H28" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I28" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J28" t="n">
         <v>1.5</v>
@@ -1654,30 +1654,30 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amanda Anisimova</t>
+          <t>Jason Kubler</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Karolina Pliskova</t>
+          <t>Radu Albot</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="E29" t="n">
-        <v>1.376399942665045</v>
+        <v>1.253069104837811</v>
       </c>
       <c r="F29" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="G29" t="n">
-        <v>3.656748544964289</v>
+        <v>4.951489853496295</v>
       </c>
       <c r="H29" t="n">
         <v>47</v>
@@ -1697,43 +1697,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cedrik Marcel Stebe</t>
+          <t>Kaia Kanepi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nicolas Alvarez Varona</t>
+          <t>Lin Zhu</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="E30" t="n">
-        <v>1.597716776155275</v>
+        <v>1.331750786157946</v>
       </c>
       <c r="F30" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="G30" t="n">
-        <v>2.673033182090609</v>
+        <v>4.014310867447056</v>
       </c>
       <c r="H30" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J30" t="n">
         <v>1.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -1745,28 +1745,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Ricardas Berankis</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Jeffrey John Wolf</t>
+          <t>Facundo Bagnis</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1.47</v>
       </c>
       <c r="E31" t="n">
-        <v>1.876617648314901</v>
+        <v>1.9854213635689</v>
       </c>
       <c r="F31" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="G31" t="n">
-        <v>2.140748194976765</v>
+        <v>2.014794317405806</v>
       </c>
       <c r="H31" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I31" t="n">
         <v>40</v>
@@ -1783,33 +1783,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hubert Hurkacz</t>
+          <t>Maria Sakkari</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Emil Ruusuvuori</t>
+          <t>Shelby Rogers</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>1.348919746224086</v>
+        <v>1.405685115960961</v>
       </c>
       <c r="F32" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="G32" t="n">
-        <v>3.865988557029877</v>
+        <v>3.464965956740273</v>
       </c>
       <c r="H32" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I32" t="n">
         <v>60</v>
@@ -1831,34 +1831,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Beatriz Haddad Maia</t>
+          <t>Ons Jabeur</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Claire Liu</t>
+          <t>Madison Keys</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="E33" t="n">
-        <v>1.323205886720317</v>
+        <v>1.221684627149353</v>
       </c>
       <c r="F33" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="G33" t="n">
-        <v>4.094003052194839</v>
+        <v>5.510912699987456</v>
       </c>
       <c r="H33" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J33" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1874,34 +1874,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Thanasi Kokkinakis</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Juncheng Shang</t>
+          <t>Steve Johnson</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="E34" t="n">
-        <v>1.969643263558874</v>
+        <v>1.744260577368788</v>
       </c>
       <c r="F34" t="n">
-        <v>2.47</v>
+        <v>2.41</v>
       </c>
       <c r="G34" t="n">
-        <v>2.031307118382597</v>
+        <v>2.343615435786397</v>
       </c>
       <c r="H34" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J34" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1912,43 +1912,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Naomi Osaka</t>
+          <t>Mattia Bellucci</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Qinwen Zheng</t>
+          <t>Damir Dzumhur</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="E35" t="n">
-        <v>1.469414911330543</v>
+        <v>1.907660998489281</v>
       </c>
       <c r="F35" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>3.130311534342888</v>
+        <v>2.101732917536844</v>
       </c>
       <c r="H35" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I35" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J35" t="n">
         <v>1.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
@@ -1960,34 +1960,34 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nicolas Moreno De Alboran</t>
+          <t>Holger Rune</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gianmarco Ferrari</t>
+          <t>Jeffrey John Wolf</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="E36" t="n">
-        <v>1.58659296637232</v>
+        <v>1.725394168771251</v>
       </c>
       <c r="F36" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="G36" t="n">
-        <v>2.704759615827519</v>
+        <v>2.378560847399566</v>
       </c>
       <c r="H36" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I36" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J36" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1998,43 +1998,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jordan Thompson</t>
+          <t>Donna Vekic</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yannick Hanfmann</t>
+          <t>Xiyu Wang</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="E37" t="n">
-        <v>1.994594670067651</v>
+        <v>1.635978567373284</v>
       </c>
       <c r="F37" t="n">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="G37" t="n">
-        <v>2.005434706313057</v>
+        <v>2.572380031814902</v>
       </c>
       <c r="H37" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -2046,81 +2046,81 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Grigor Dimitrov</t>
+          <t>Miomir Kecmanovic</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Adrian Mannarino</t>
+          <t>Brandon Nakashima</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="E38" t="n">
-        <v>1.376515291492427</v>
+        <v>1.771598265344136</v>
       </c>
       <c r="F38" t="n">
-        <v>2.39</v>
+        <v>2.19</v>
       </c>
       <c r="G38" t="n">
-        <v>3.655934626283603</v>
+        <v>2.296011208052672</v>
       </c>
       <c r="H38" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J38" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lower</t>
+          <t>Higher</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Maxime Cressy</t>
+          <t>Ajla Tomljanovic</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jack Sock</t>
+          <t>Ludmilla Samsonova</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="E39" t="n">
-        <v>1.978051223617346</v>
+        <v>1.510600747718607</v>
       </c>
       <c r="F39" t="n">
-        <v>2.36</v>
+        <v>2.07</v>
       </c>
       <c r="G39" t="n">
-        <v>2.022441336253817</v>
+        <v>2.958477351371021</v>
       </c>
       <c r="H39" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I39" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J39" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -2132,34 +2132,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Camilo Ugo Carabelli</t>
+          <t>Botic Van De Zandschulp</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mattia Bellucci</t>
+          <t>Frances Tiafoe</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="E40" t="n">
-        <v>1.562715489112686</v>
+        <v>1.724473353627158</v>
       </c>
       <c r="F40" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="G40" t="n">
-        <v>2.777096986572811</v>
+        <v>2.380313016335779</v>
       </c>
       <c r="H40" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="I40" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J40" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2175,34 +2175,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nuno Borges</t>
+          <t>Grigor Dimitrov</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fabian Marozsan</t>
+          <t>Sebastian Korda</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="E41" t="n">
-        <v>1.962422555604119</v>
+        <v>1.896112775896909</v>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="G41" t="n">
-        <v>2.039044642269729</v>
+        <v>2.115930970852538</v>
       </c>
       <c r="H41" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I41" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J41" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2218,38 +2218,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Matteo Arnaldi</t>
+          <t>Strong Kirchheimer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Andrea Collarini</t>
+          <t>Nicolas Mejia</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="E42" t="n">
-        <v>1.728010264538185</v>
+        <v>1.520720008977581</v>
       </c>
       <c r="F42" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="G42" t="n">
-        <v>2.373607006261584</v>
+        <v>2.920417849821964</v>
       </c>
       <c r="H42" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J42" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -2261,34 +2261,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nino Serdarusic</t>
+          <t>Alexandre Muller</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Stefano Travaglia</t>
+          <t>Ernests Gulbis</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.65</v>
+        <v>2.17</v>
       </c>
       <c r="E43" t="n">
-        <v>1.54976485225031</v>
+        <v>1.774994079180379</v>
       </c>
       <c r="F43" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="G43" t="n">
-        <v>2.818959498605228</v>
+        <v>2.290332438484671</v>
       </c>
       <c r="H43" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J43" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2304,38 +2304,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aslan Karatsev</t>
+          <t>Otto Virtanen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mikael Ymer</t>
+          <t>Manuel Guinard</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.71</v>
+        <v>2.47</v>
       </c>
       <c r="E44" t="n">
-        <v>1.829162800286223</v>
+        <v>1.940912306256628</v>
       </c>
       <c r="F44" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G44" t="n">
-        <v>2.20603577446408</v>
+        <v>2.06279830049035</v>
       </c>
       <c r="H44" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I44" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J44" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Higher</t>
+          <t>Lower</t>
         </is>
       </c>
     </row>
@@ -2347,294 +2347,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Andrea Vavassori</t>
+          <t>Andrey Chepelev</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Geoffrey Blancaneaux</t>
+          <t>Nino Serdarusic</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.74</v>
+        <v>2.63</v>
       </c>
       <c r="E45" t="n">
-        <v>1.93624706093976</v>
+        <v>1.802569482246727</v>
       </c>
       <c r="F45" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="G45" t="n">
-        <v>2.068094140660103</v>
+        <v>2.24599803770333</v>
       </c>
       <c r="H45" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J45" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="K45" t="inlineStr">
-        <is>
-          <t>Higher</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Womens</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Andrea Petkovic</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Rebecca Marino</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1.722503913433882</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.384075548113294</v>
-      </c>
-      <c r="H46" t="n">
-        <v>35</v>
-      </c>
-      <c r="I46" t="n">
-        <v>30</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Facundo Bagnis</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Ernesto Escobedo</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1.263001651284177</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4.802257495788449</v>
-      </c>
-      <c r="H47" t="n">
-        <v>63</v>
-      </c>
-      <c r="I47" t="n">
-        <v>60</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Vitaliy Sachko</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Giovanni Mpetshi Perricard</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.875750716993539</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.141877455074214</v>
-      </c>
-      <c r="H48" t="n">
-        <v>48</v>
-      </c>
-      <c r="I48" t="n">
-        <v>40</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Nicolas Mejia</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Hady Habib</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.84352382312103</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.185502972873973</v>
-      </c>
-      <c r="H49" t="n">
-        <v>37</v>
-      </c>
-      <c r="I49" t="n">
-        <v>30</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Ernests Gulbis</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Nikolas Sanchez Izquierdo</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1.632738647438726</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.580431358267616</v>
-      </c>
-      <c r="H50" t="n">
-        <v>40</v>
-      </c>
-      <c r="I50" t="n">
-        <v>40</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Sebastian Baez</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Sebastian Korda</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.924665928637647</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.081471663472391</v>
-      </c>
-      <c r="H51" t="n">
-        <v>55</v>
-      </c>
-      <c r="I51" t="n">
-        <v>50</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
